--- a/N3_Kanji.xlsx
+++ b/N3_Kanji.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProGramming_Projects\Python\KanjiBot\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProGramming_Projects\Python\KanjiBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0F9B3D-CCDB-48F6-A9A4-021038526582}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF1D6CA-602A-49FC-9B89-66E140774748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,9 +463,6 @@
     <t>たまねぎ</t>
   </si>
   <si>
-    <t>Egg</t>
-  </si>
-  <si>
     <t>屋根</t>
   </si>
   <si>
@@ -560,6 +557,9 @@
   </si>
   <si>
     <t>Lost property</t>
+  </si>
+  <si>
+    <t>Onion</t>
   </si>
 </sst>
 </file>
@@ -822,8 +822,8 @@
   </sheetPr>
   <dimension ref="A1:C1022"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="51" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>146</v>
@@ -1398,120 +1398,120 @@
         <v>60</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>

--- a/N3_Kanji.xlsx
+++ b/N3_Kanji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProGramming_Projects\Python\KanjiBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF1D6CA-602A-49FC-9B89-66E140774748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE17332-4F6F-43F5-9825-4BB80D4F3D8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="1022">
   <si>
     <t>辺り</t>
   </si>
@@ -560,13 +560,2542 @@
   </si>
   <si>
     <t>Onion</t>
+  </si>
+  <si>
+    <t>Be effective</t>
+  </si>
+  <si>
+    <t>To be in trouble</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Be helped out</t>
+  </si>
+  <si>
+    <t>Apply\Put on</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Stick</t>
+  </si>
+  <si>
+    <t>Socialize with</t>
+  </si>
+  <si>
+    <t>Notice</t>
+  </si>
+  <si>
+    <t>Approach\Draw closer</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>Continuation\Next part</t>
+  </si>
+  <si>
+    <t>(Carry out a)Procedure</t>
+  </si>
+  <si>
+    <t>To continoue</t>
+  </si>
+  <si>
+    <t>To deliver</t>
+  </si>
+  <si>
+    <t>Report\Notification</t>
+  </si>
+  <si>
+    <t>To stay at</t>
+  </si>
+  <si>
+    <t>To ring\To make sound</t>
+  </si>
+  <si>
+    <t>To ring\To sound</t>
+  </si>
+  <si>
+    <t>To Run</t>
+  </si>
+  <si>
+    <t>Request\Hope\Wish</t>
+  </si>
+  <si>
+    <t>To measure</t>
+  </si>
+  <si>
+    <t>To decrease</t>
+  </si>
+  <si>
+    <t>To reduce</t>
+  </si>
+  <si>
+    <t>To lose</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>To master</t>
+  </si>
+  <si>
+    <t>To state</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Joy</t>
+  </si>
+  <si>
+    <t>To clear up</t>
+  </si>
+  <si>
+    <t>きく</t>
+  </si>
+  <si>
+    <t>こまる</t>
+  </si>
+  <si>
+    <t>たすける</t>
+  </si>
+  <si>
+    <t>たすかる</t>
+  </si>
+  <si>
+    <t>つける</t>
+  </si>
+  <si>
+    <t>ひつけ</t>
+  </si>
+  <si>
+    <t>つく</t>
+  </si>
+  <si>
+    <t>つきあう</t>
+  </si>
+  <si>
+    <t>きつく</t>
+  </si>
+  <si>
+    <t>ちかつく</t>
+  </si>
+  <si>
+    <t>つづく</t>
+  </si>
+  <si>
+    <t>つづき</t>
+  </si>
+  <si>
+    <t>てつづき</t>
+  </si>
+  <si>
+    <t>つづける</t>
+  </si>
+  <si>
+    <t>とどける</t>
+  </si>
+  <si>
+    <t>とどけ</t>
+  </si>
+  <si>
+    <t>とどく</t>
+  </si>
+  <si>
+    <t>とまる</t>
+  </si>
+  <si>
+    <t>なる</t>
+  </si>
+  <si>
+    <t>にげる</t>
+  </si>
+  <si>
+    <t>ねがう</t>
+  </si>
+  <si>
+    <t>はかる</t>
+  </si>
+  <si>
+    <t>へる</t>
+  </si>
+  <si>
+    <t>へらす</t>
+  </si>
+  <si>
+    <t>まける</t>
+  </si>
+  <si>
+    <t>がく</t>
+  </si>
+  <si>
+    <t>まなぶ</t>
+  </si>
+  <si>
+    <t>もうす</t>
+  </si>
+  <si>
+    <t>もうしあげる</t>
+  </si>
+  <si>
+    <t>もうしこみ</t>
+  </si>
+  <si>
+    <t>よろこぶ</t>
+  </si>
+  <si>
+    <t>はれる</t>
+  </si>
+  <si>
+    <t>効く</t>
+  </si>
+  <si>
+    <t>困まる</t>
+  </si>
+  <si>
+    <t>助ける</t>
+  </si>
+  <si>
+    <t>助かる</t>
+  </si>
+  <si>
+    <t>付けろ</t>
+  </si>
+  <si>
+    <t>目付</t>
+  </si>
+  <si>
+    <t>付く</t>
+  </si>
+  <si>
+    <t>付き合う</t>
+  </si>
+  <si>
+    <t>気付く</t>
+  </si>
+  <si>
+    <t>近付く</t>
+  </si>
+  <si>
+    <t>続く</t>
+  </si>
+  <si>
+    <t>続き</t>
+  </si>
+  <si>
+    <t>手続き</t>
+  </si>
+  <si>
+    <t>続ける</t>
+  </si>
+  <si>
+    <t>届ける</t>
+  </si>
+  <si>
+    <t>届け</t>
+  </si>
+  <si>
+    <t>届く</t>
+  </si>
+  <si>
+    <t>泊まる</t>
+  </si>
+  <si>
+    <t>鳴く</t>
+  </si>
+  <si>
+    <t>鳴る</t>
+  </si>
+  <si>
+    <t>逃げる</t>
+  </si>
+  <si>
+    <t>願う</t>
+  </si>
+  <si>
+    <t>計る</t>
+  </si>
+  <si>
+    <t>減る</t>
+  </si>
+  <si>
+    <t>減らす</t>
+  </si>
+  <si>
+    <t>負ける</t>
+  </si>
+  <si>
+    <t>学く</t>
+  </si>
+  <si>
+    <t>学ぶ</t>
+  </si>
+  <si>
+    <t>申す</t>
+  </si>
+  <si>
+    <t>申し上げる</t>
+  </si>
+  <si>
+    <t>由しこみ</t>
+  </si>
+  <si>
+    <t>喜ぶ</t>
+  </si>
+  <si>
+    <t>晴れる</t>
+  </si>
+  <si>
+    <t>Warm</t>
+  </si>
+  <si>
+    <t>Be warmed up, Heated</t>
+  </si>
+  <si>
+    <t>Warm up</t>
+  </si>
+  <si>
+    <t>Thick</t>
+  </si>
+  <si>
+    <t>Busy</t>
+  </si>
+  <si>
+    <t>Sad</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Yellow Color</t>
+  </si>
+  <si>
+    <t>Quiet</t>
+  </si>
+  <si>
+    <t>Cool</t>
+  </si>
+  <si>
+    <t>Long time no see</t>
+  </si>
+  <si>
+    <t>Total Darkness, Pitch Black</t>
+  </si>
+  <si>
+    <t>Really, Truly</t>
+  </si>
+  <si>
+    <t>Everything</t>
+  </si>
+  <si>
+    <t>Circle, Entirely</t>
+  </si>
+  <si>
+    <t>Round,Circular</t>
+  </si>
+  <si>
+    <t>Difficult</t>
+  </si>
+  <si>
+    <t>Young Folk</t>
+  </si>
+  <si>
+    <t>Young, Youth</t>
+  </si>
+  <si>
+    <t>あたたかい</t>
+  </si>
+  <si>
+    <t>あたたまる</t>
+  </si>
+  <si>
+    <t>あたためる</t>
+  </si>
+  <si>
+    <t>あつい</t>
+  </si>
+  <si>
+    <t>いそがしい</t>
+  </si>
+  <si>
+    <t>かなしい</t>
+  </si>
+  <si>
+    <t>きいろ</t>
+  </si>
+  <si>
+    <t>きいろい</t>
+  </si>
+  <si>
+    <t>しずか</t>
+  </si>
+  <si>
+    <t>すずしい</t>
+  </si>
+  <si>
+    <t>ひさしぶり</t>
+  </si>
+  <si>
+    <t>まっくらい</t>
+  </si>
+  <si>
+    <t>まったく</t>
+  </si>
+  <si>
+    <t>すべて</t>
+  </si>
+  <si>
+    <t>まる</t>
+  </si>
+  <si>
+    <t>まるい</t>
+  </si>
+  <si>
+    <t>むずかしい</t>
+  </si>
+  <si>
+    <t>わかもの</t>
+  </si>
+  <si>
+    <t>わかい</t>
+  </si>
+  <si>
+    <t>暖かい</t>
+  </si>
+  <si>
+    <t>暖まる</t>
+  </si>
+  <si>
+    <t>暖める</t>
+  </si>
+  <si>
+    <t>厚い</t>
+  </si>
+  <si>
+    <t>忙しい</t>
+  </si>
+  <si>
+    <t>悲しい</t>
+  </si>
+  <si>
+    <t>黄色</t>
+  </si>
+  <si>
+    <t>黄色い</t>
+  </si>
+  <si>
+    <t>静か</t>
+  </si>
+  <si>
+    <t>涼しい</t>
+  </si>
+  <si>
+    <t>久しぶり</t>
+  </si>
+  <si>
+    <t>真っ暗い</t>
+  </si>
+  <si>
+    <t>全く</t>
+  </si>
+  <si>
+    <t>全て</t>
+  </si>
+  <si>
+    <t>丸</t>
+  </si>
+  <si>
+    <t>丸い</t>
+  </si>
+  <si>
+    <t>難しい</t>
+  </si>
+  <si>
+    <t>わか者</t>
+  </si>
+  <si>
+    <t>若い</t>
+  </si>
+  <si>
+    <t>若者</t>
+  </si>
+  <si>
+    <t>raw materials.</t>
+  </si>
+  <si>
+    <t>営ぎょう</t>
+  </si>
+  <si>
+    <t>ぼう易</t>
+  </si>
+  <si>
+    <t>課ちょう</t>
+  </si>
+  <si>
+    <t>き械</t>
+  </si>
+  <si>
+    <t>管り</t>
+  </si>
+  <si>
+    <t>機会</t>
+  </si>
+  <si>
+    <t>建せつ</t>
+  </si>
+  <si>
+    <t>原りょう</t>
+  </si>
+  <si>
+    <t>広こく</t>
+  </si>
+  <si>
+    <t>けん設</t>
+  </si>
+  <si>
+    <t>せい造</t>
+  </si>
+  <si>
+    <t>ろう働</t>
+  </si>
+  <si>
+    <t>貿えき</t>
+  </si>
+  <si>
+    <t>労どう</t>
+  </si>
+  <si>
+    <t>To be Heard</t>
+  </si>
+  <si>
+    <t>各~</t>
+  </si>
+  <si>
+    <t>かく~</t>
+  </si>
+  <si>
+    <t>Each \ Every</t>
+  </si>
+  <si>
+    <t>感じる</t>
+  </si>
+  <si>
+    <t>かんじる</t>
+  </si>
+  <si>
+    <t>Feel \ Have sense of</t>
+  </si>
+  <si>
+    <t>記事</t>
+  </si>
+  <si>
+    <t>きじ</t>
+  </si>
+  <si>
+    <t>Articles \ News story</t>
+  </si>
+  <si>
+    <t>期間</t>
+  </si>
+  <si>
+    <t>きかん</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>具合</t>
+  </si>
+  <si>
+    <t>ぐあい</t>
+  </si>
+  <si>
+    <t>Condition \ State</t>
+  </si>
+  <si>
+    <t>実験</t>
+  </si>
+  <si>
+    <t>じっけん</t>
+  </si>
+  <si>
+    <t>Experiment \ Do a test</t>
+  </si>
+  <si>
+    <t>女性</t>
+  </si>
+  <si>
+    <t>じょせい</t>
+  </si>
+  <si>
+    <t>Women</t>
+  </si>
+  <si>
+    <t>情報</t>
+  </si>
+  <si>
+    <t>じょうほう</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>信号</t>
+  </si>
+  <si>
+    <t>しんごう</t>
+  </si>
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>性質</t>
+  </si>
+  <si>
+    <t>せいしつ</t>
+  </si>
+  <si>
+    <t>Nature \ Character</t>
+  </si>
+  <si>
+    <t>第~</t>
+  </si>
+  <si>
+    <t>だい~</t>
+  </si>
+  <si>
+    <t>Cardinal number marker(st,nd,rd,th)</t>
+  </si>
+  <si>
+    <t>男性</t>
+  </si>
+  <si>
+    <t>だんせい</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>~的</t>
+  </si>
+  <si>
+    <t>~てき</t>
+  </si>
+  <si>
+    <t>Of (possessive particles)</t>
+  </si>
+  <si>
+    <t>費用</t>
+  </si>
+  <si>
+    <t>ひよう</t>
+  </si>
+  <si>
+    <t>Cost \ Expensive</t>
+  </si>
+  <si>
+    <t>副~</t>
+  </si>
+  <si>
+    <t>ふく~</t>
+  </si>
+  <si>
+    <t>Vice~ \ Deputy~</t>
+  </si>
+  <si>
+    <t>友情</t>
+  </si>
+  <si>
+    <t>ゆうじょう</t>
+  </si>
+  <si>
+    <t>Friendship</t>
+  </si>
+  <si>
+    <t>両~</t>
+  </si>
+  <si>
+    <t>りょう~</t>
+  </si>
+  <si>
+    <t>Both~</t>
+  </si>
+  <si>
+    <t>学力</t>
+  </si>
+  <si>
+    <t>がくりょく</t>
+  </si>
+  <si>
+    <t>Academic ability</t>
+  </si>
+  <si>
+    <t>感情</t>
+  </si>
+  <si>
+    <t>かんじょう</t>
+  </si>
+  <si>
+    <t>Feelings\Emotions</t>
+  </si>
+  <si>
+    <t>記者</t>
+  </si>
+  <si>
+    <t>きしゃ</t>
+  </si>
+  <si>
+    <t>Reporter</t>
+  </si>
+  <si>
+    <t>学期</t>
+  </si>
+  <si>
+    <t>がっき</t>
+  </si>
+  <si>
+    <t>Semester\Term</t>
+  </si>
+  <si>
+    <t>具体的な</t>
+  </si>
+  <si>
+    <t>ぐたいてきな</t>
+  </si>
+  <si>
+    <t>Soncrete\Specific</t>
+  </si>
+  <si>
+    <t>実は</t>
+  </si>
+  <si>
+    <t>じつは</t>
+  </si>
+  <si>
+    <t>Actually\In fact</t>
+  </si>
+  <si>
+    <t>長女</t>
+  </si>
+  <si>
+    <t>ちょうじょ</t>
+  </si>
+  <si>
+    <t>Eldest or oldest daughter</t>
+  </si>
+  <si>
+    <t>To feel\To experience</t>
+  </si>
+  <si>
+    <t>信じる</t>
+  </si>
+  <si>
+    <t>しんじる</t>
+  </si>
+  <si>
+    <t>Believe</t>
+  </si>
+  <si>
+    <t>性別</t>
+  </si>
+  <si>
+    <t>せいべつ</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>製品</t>
+  </si>
+  <si>
+    <t>せいひん</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>下線</t>
+  </si>
+  <si>
+    <t>かせん</t>
+  </si>
+  <si>
+    <t>Underline</t>
+  </si>
+  <si>
+    <t>Concrete\Tangible</t>
+  </si>
+  <si>
+    <t>会費</t>
+  </si>
+  <si>
+    <t>かいひ</t>
+  </si>
+  <si>
+    <t>Membership fee</t>
+  </si>
+  <si>
+    <t>注意報</t>
+  </si>
+  <si>
+    <t>ちょういほう</t>
+  </si>
+  <si>
+    <t>Advisory\Warning</t>
+  </si>
+  <si>
+    <t>友人</t>
+  </si>
+  <si>
+    <t>ゆうじん</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>両側</t>
+  </si>
+  <si>
+    <t>りょうがわ</t>
+  </si>
+  <si>
+    <t>Both sides</t>
+  </si>
+  <si>
+    <t>実力</t>
+  </si>
+  <si>
+    <t>じつりょく</t>
+  </si>
+  <si>
+    <t>Ability\True strength</t>
+  </si>
+  <si>
+    <t>関心</t>
+  </si>
+  <si>
+    <t>かんしん</t>
+  </si>
+  <si>
+    <t>Admire \ Impressed</t>
+  </si>
+  <si>
+    <t>記入</t>
+  </si>
+  <si>
+    <t>きにょう</t>
+  </si>
+  <si>
+    <t>Fill in \ Complete</t>
+  </si>
+  <si>
+    <t>時期</t>
+  </si>
+  <si>
+    <t>じき</t>
+  </si>
+  <si>
+    <t>Period \ time of year</t>
+  </si>
+  <si>
+    <t>家具</t>
+  </si>
+  <si>
+    <t>かぐ</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Ability \ Strength</t>
+  </si>
+  <si>
+    <t>事情</t>
+  </si>
+  <si>
+    <t>じじょう</t>
+  </si>
+  <si>
+    <t>Situation</t>
+  </si>
+  <si>
+    <t>信用</t>
+  </si>
+  <si>
+    <t>しんよう</t>
+  </si>
+  <si>
+    <t>Have faith \ Trust</t>
+  </si>
+  <si>
+    <t>電線</t>
+  </si>
+  <si>
+    <t>でんせん</t>
+  </si>
+  <si>
+    <t>Electric wire</t>
+  </si>
+  <si>
+    <t>学費</t>
+  </si>
+  <si>
+    <t>がくひ</t>
+  </si>
+  <si>
+    <t>Tuition fee</t>
+  </si>
+  <si>
+    <t>電報</t>
+  </si>
+  <si>
+    <t>でんぽう</t>
+  </si>
+  <si>
+    <t>Telegram</t>
+  </si>
+  <si>
+    <t>親友</t>
+  </si>
+  <si>
+    <t>しんゆう</t>
+  </si>
+  <si>
+    <t>Best \ Closest friend</t>
+  </si>
+  <si>
+    <t>両親</t>
+  </si>
+  <si>
+    <t>りょうしん</t>
+  </si>
+  <si>
+    <t>Parents</t>
+  </si>
+  <si>
+    <t>全力</t>
+  </si>
+  <si>
+    <t>ぜんりょく</t>
+  </si>
+  <si>
+    <t>Full force</t>
+  </si>
+  <si>
+    <t>感動</t>
+  </si>
+  <si>
+    <t>かんどう</t>
+  </si>
+  <si>
+    <t>Be impressed \ inspired</t>
+  </si>
+  <si>
+    <t>日記</t>
+  </si>
+  <si>
+    <t>にっき</t>
+  </si>
+  <si>
+    <t>Diary</t>
+  </si>
+  <si>
+    <t>道具</t>
+  </si>
+  <si>
+    <t>どうぐ</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>事実</t>
+  </si>
+  <si>
+    <t>じじつ</t>
+  </si>
+  <si>
+    <t>Fact</t>
+  </si>
+  <si>
+    <t>Friendship \ Fellowship</t>
+  </si>
+  <si>
+    <t>自信</t>
+  </si>
+  <si>
+    <t>じしん</t>
+  </si>
+  <si>
+    <t>Self-confidence</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>体力</t>
+  </si>
+  <si>
+    <t>たいりょく</t>
+  </si>
+  <si>
+    <t>Physical fitness \ Bodily strength</t>
+  </si>
+  <si>
+    <t>返信</t>
+  </si>
+  <si>
+    <t>へんしん</t>
+  </si>
+  <si>
+    <t>Reply \ Respond</t>
+  </si>
+  <si>
+    <t>案内</t>
+  </si>
+  <si>
+    <t>あんない</t>
+  </si>
+  <si>
+    <t>Guide</t>
+  </si>
+  <si>
+    <t>温度</t>
+  </si>
+  <si>
+    <t>おんど</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>温度計</t>
+  </si>
+  <si>
+    <t>おんどけい</t>
+  </si>
+  <si>
+    <t>Thermometer (household)</t>
+  </si>
+  <si>
+    <t>気温</t>
+  </si>
+  <si>
+    <t>きおん</t>
+  </si>
+  <si>
+    <t>Temperature (air)</t>
+  </si>
+  <si>
+    <t>体温</t>
+  </si>
+  <si>
+    <t>たいおん</t>
+  </si>
+  <si>
+    <t>Temperature (body)</t>
+  </si>
+  <si>
+    <t>体温計</t>
+  </si>
+  <si>
+    <t>たいおんけい</t>
+  </si>
+  <si>
+    <t>Thermometer (body)</t>
+  </si>
+  <si>
+    <t>温かい</t>
+  </si>
+  <si>
+    <t>温まる</t>
+  </si>
+  <si>
+    <t>Be heated up</t>
+  </si>
+  <si>
+    <t>温める</t>
+  </si>
+  <si>
+    <t>Heat up</t>
+  </si>
+  <si>
+    <t>参加する</t>
+  </si>
+  <si>
+    <t>さんかする</t>
+  </si>
+  <si>
+    <t>Participate、Take part in</t>
+  </si>
+  <si>
+    <t>増加する</t>
+  </si>
+  <si>
+    <t>ぞうかする</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>追加する</t>
+  </si>
+  <si>
+    <t>ついかする</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>加える</t>
+  </si>
+  <si>
+    <t>くわえる</t>
+  </si>
+  <si>
+    <t>結果</t>
+  </si>
+  <si>
+    <t>けっか</t>
+  </si>
+  <si>
+    <t>Result \ Outcome</t>
+  </si>
+  <si>
+    <t>決して</t>
+  </si>
+  <si>
+    <t>けっして</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>決める</t>
+  </si>
+  <si>
+    <t>きめる</t>
+  </si>
+  <si>
+    <t>Decide</t>
+  </si>
+  <si>
+    <t>決心する</t>
+  </si>
+  <si>
+    <t>けっしんする</t>
+  </si>
+  <si>
+    <t>Resolve \ Decide</t>
+  </si>
+  <si>
+    <t>決まる</t>
+  </si>
+  <si>
+    <t>きまる</t>
+  </si>
+  <si>
+    <t>Determined</t>
+  </si>
+  <si>
+    <t>結婚</t>
+  </si>
+  <si>
+    <t>けっこん</t>
+  </si>
+  <si>
+    <t>Marraige</t>
+  </si>
+  <si>
+    <t>決論</t>
+  </si>
+  <si>
+    <t>けっろん</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>結ぶ</t>
+  </si>
+  <si>
+    <t>むすぶ</t>
+  </si>
+  <si>
+    <t>Link \ Tie \ Conjoin</t>
+  </si>
+  <si>
+    <t>最近</t>
+  </si>
+  <si>
+    <t>さいきん</t>
+  </si>
+  <si>
+    <t>Recently</t>
+  </si>
+  <si>
+    <t>最後</t>
+  </si>
+  <si>
+    <t>さいご</t>
+  </si>
+  <si>
+    <t>Lastly</t>
+  </si>
+  <si>
+    <t>最高</t>
+  </si>
+  <si>
+    <t>さいこう</t>
+  </si>
+  <si>
+    <t>Highest \ Best</t>
+  </si>
+  <si>
+    <t>最大</t>
+  </si>
+  <si>
+    <t>さいだい</t>
+  </si>
+  <si>
+    <t>Largest \ Maximum</t>
+  </si>
+  <si>
+    <t>最も</t>
+  </si>
+  <si>
+    <t>もっとも</t>
+  </si>
+  <si>
+    <t>Though</t>
+  </si>
+  <si>
+    <t>参る</t>
+  </si>
+  <si>
+    <t>まいる</t>
+  </si>
+  <si>
+    <t>Visit</t>
+  </si>
+  <si>
+    <t>全然</t>
+  </si>
+  <si>
+    <t>ぜんぜん</t>
+  </si>
+  <si>
+    <t>Not at all</t>
+  </si>
+  <si>
+    <t>当然</t>
+  </si>
+  <si>
+    <t>とうぜん</t>
+  </si>
+  <si>
+    <t>Of course</t>
+  </si>
+  <si>
+    <t>増える</t>
+  </si>
+  <si>
+    <t>ふえる</t>
+  </si>
+  <si>
+    <t>増やす</t>
+  </si>
+  <si>
+    <t>ふやす</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>そくど</t>
+  </si>
+  <si>
+    <t>Speed \ Rate \ Tempo</t>
+  </si>
+  <si>
+    <t>時速</t>
+  </si>
+  <si>
+    <t>じそく</t>
+  </si>
+  <si>
+    <t>Speed (miles/ kilometres per hour)</t>
+  </si>
+  <si>
+    <t>風速</t>
+  </si>
+  <si>
+    <t>ふうそく</t>
+  </si>
+  <si>
+    <t>Wind speed</t>
+  </si>
+  <si>
+    <t>速い</t>
+  </si>
+  <si>
+    <t>はやい</t>
+  </si>
+  <si>
+    <t>Fast</t>
+  </si>
+  <si>
+    <t>追う</t>
+  </si>
+  <si>
+    <t>おう</t>
+  </si>
+  <si>
+    <t>Follow \ Pursue</t>
+  </si>
+  <si>
+    <t>追い越す</t>
+  </si>
+  <si>
+    <t>おいこす</t>
+  </si>
+  <si>
+    <t>Overtake \ Pass</t>
+  </si>
+  <si>
+    <t>追い付く</t>
+  </si>
+  <si>
+    <t>おいつく</t>
+  </si>
+  <si>
+    <t>Catch up \ Draw level</t>
+  </si>
+  <si>
+    <t>当番</t>
+  </si>
+  <si>
+    <t>とうばん</t>
+  </si>
+  <si>
+    <t>Turn ( of duty) \ Turn to be on call</t>
+  </si>
+  <si>
+    <t>本当</t>
+  </si>
+  <si>
+    <t>ほんとう</t>
+  </si>
+  <si>
+    <t>Really</t>
+  </si>
+  <si>
+    <t>当たる</t>
+  </si>
+  <si>
+    <t>あたる</t>
+  </si>
+  <si>
+    <t>Hit \ Bump \ Win</t>
+  </si>
+  <si>
+    <t>日当たり</t>
+  </si>
+  <si>
+    <t>ひあたり</t>
+  </si>
+  <si>
+    <t>Sunshine \ Daylight</t>
+  </si>
+  <si>
+    <t>当てる</t>
+  </si>
+  <si>
+    <t>あてる</t>
+  </si>
+  <si>
+    <t>Hit</t>
+  </si>
+  <si>
+    <t>内科</t>
+  </si>
+  <si>
+    <t>ないか</t>
+  </si>
+  <si>
+    <t>Internal medicine</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>ないよう</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>以内</t>
+  </si>
+  <si>
+    <t>いない</t>
+  </si>
+  <si>
+    <t>Inside</t>
+  </si>
+  <si>
+    <t>家内</t>
+  </si>
+  <si>
+    <t>かない</t>
+  </si>
+  <si>
+    <t>内側</t>
+  </si>
+  <si>
+    <t>うちがわ</t>
+  </si>
+  <si>
+    <t>表</t>
+  </si>
+  <si>
+    <t>ひょう</t>
+  </si>
+  <si>
+    <t>Table \ Chart</t>
+  </si>
+  <si>
+    <t>表面</t>
+  </si>
+  <si>
+    <t>ひょうめん</t>
+  </si>
+  <si>
+    <t>Surface</t>
+  </si>
+  <si>
+    <t>代表する</t>
+  </si>
+  <si>
+    <t>だいひょうする</t>
+  </si>
+  <si>
+    <t>Represent</t>
+  </si>
+  <si>
+    <t>発表する</t>
+  </si>
+  <si>
+    <t>はっぴょうする</t>
+  </si>
+  <si>
+    <t>Announce</t>
+  </si>
+  <si>
+    <t>おもて</t>
+  </si>
+  <si>
+    <t>Surface \ Face</t>
+  </si>
+  <si>
+    <t>正面</t>
+  </si>
+  <si>
+    <t>しょうめん</t>
+  </si>
+  <si>
+    <t>Face \ Front \ Facade</t>
+  </si>
+  <si>
+    <t>場面</t>
+  </si>
+  <si>
+    <t>ばめん</t>
+  </si>
+  <si>
+    <t>Scene \ Situation</t>
+  </si>
+  <si>
+    <t>方面</t>
+  </si>
+  <si>
+    <t>ほうめん</t>
+  </si>
+  <si>
+    <t>Direction \ Quarter</t>
+  </si>
+  <si>
+    <t>面白い</t>
+  </si>
+  <si>
+    <t>おもしろい</t>
+  </si>
+  <si>
+    <t>Interesting</t>
+  </si>
+  <si>
+    <t>結論</t>
+  </si>
+  <si>
+    <t>けつろん</t>
+  </si>
+  <si>
+    <t>えいぎょう</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>ぼうえき</t>
+  </si>
+  <si>
+    <t>Trade</t>
+  </si>
+  <si>
+    <t>かちょう</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>きかい</t>
+  </si>
+  <si>
+    <t>Machine</t>
+  </si>
+  <si>
+    <t>かんり</t>
+  </si>
+  <si>
+    <t>Manage</t>
+  </si>
+  <si>
+    <t>Opportunity</t>
+  </si>
+  <si>
+    <t>技じゅつ</t>
+  </si>
+  <si>
+    <t>ぎじゅつ</t>
+  </si>
+  <si>
+    <t>Techonology</t>
+  </si>
+  <si>
+    <t>とく技</t>
+  </si>
+  <si>
+    <t>とくぎ</t>
+  </si>
+  <si>
+    <t>Special skill</t>
+  </si>
+  <si>
+    <t>けんせつ</t>
+  </si>
+  <si>
+    <t>Construct \ Build</t>
+  </si>
+  <si>
+    <t>げんりょう</t>
+  </si>
+  <si>
+    <t>こうこく</t>
+  </si>
+  <si>
+    <t>Advertise</t>
+  </si>
+  <si>
+    <t>こう告</t>
+  </si>
+  <si>
+    <t>ほう告</t>
+  </si>
+  <si>
+    <t>ほうこく</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>ぎ術</t>
+  </si>
+  <si>
+    <t>しゅ術</t>
+  </si>
+  <si>
+    <t>しゅじゅつ</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>商業</t>
+  </si>
+  <si>
+    <t>しょうぎょう</t>
+  </si>
+  <si>
+    <t>Commerce \ Trade</t>
+  </si>
+  <si>
+    <t>商店</t>
+  </si>
+  <si>
+    <t>しょうてん</t>
+  </si>
+  <si>
+    <t>Store \ Shop</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>しょうひん</t>
+  </si>
+  <si>
+    <t>Goods \ Products</t>
+  </si>
+  <si>
+    <t>職業</t>
+  </si>
+  <si>
+    <t>しょくぎょう</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>職場</t>
+  </si>
+  <si>
+    <t>しょくば</t>
+  </si>
+  <si>
+    <t>Work place</t>
+  </si>
+  <si>
+    <t>建設</t>
+  </si>
+  <si>
+    <t>せいぞう</t>
+  </si>
+  <si>
+    <t>ろうどう</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>農業</t>
+  </si>
+  <si>
+    <t>のうぎょう</t>
+  </si>
+  <si>
+    <t>Farming</t>
+  </si>
+  <si>
+    <t>輸出</t>
+  </si>
+  <si>
+    <t>ゆしゅつ</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>輸入</t>
+  </si>
+  <si>
+    <t>ゆにゅう</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>労働</t>
+  </si>
+  <si>
+    <t>完せい</t>
+  </si>
+  <si>
+    <t>かんせい</t>
+  </si>
+  <si>
+    <t>Finish \ Complete</t>
+  </si>
+  <si>
+    <t>完ぜん</t>
+  </si>
+  <si>
+    <t>かんぜん</t>
+  </si>
+  <si>
+    <t>Full \ Complete</t>
+  </si>
+  <si>
+    <t>基本</t>
+  </si>
+  <si>
+    <t>きほん</t>
+  </si>
+  <si>
+    <t>Basis \ Foundation</t>
+  </si>
+  <si>
+    <t>会儀</t>
+  </si>
+  <si>
+    <t>かいぎ</t>
+  </si>
+  <si>
+    <t>Meeting \ Conference</t>
+  </si>
+  <si>
+    <t>会議室</t>
+  </si>
+  <si>
+    <t>かいぎしつ</t>
+  </si>
+  <si>
+    <t>Conference Room</t>
+  </si>
+  <si>
+    <t>協力</t>
+  </si>
+  <si>
+    <t>きょうりょく</t>
+  </si>
+  <si>
+    <t>Cooperate</t>
+  </si>
+  <si>
+    <t>事件</t>
+  </si>
+  <si>
+    <t>じけん</t>
+  </si>
+  <si>
+    <t>Incident</t>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>じょうけん</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>権利</t>
+  </si>
+  <si>
+    <t>けんり</t>
+  </si>
+  <si>
+    <t>Right \ Entitlement</t>
+  </si>
+  <si>
+    <t>期限</t>
+  </si>
+  <si>
+    <t>きげん</t>
+  </si>
+  <si>
+    <t>Deadline \ Due date</t>
+  </si>
+  <si>
+    <t>制限</t>
+  </si>
+  <si>
+    <t>せいげん</t>
+  </si>
+  <si>
+    <t>Limit \ Curb \ Restrain</t>
+  </si>
+  <si>
+    <t>公園</t>
+  </si>
+  <si>
+    <t>こうえん</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>公む員</t>
+  </si>
+  <si>
+    <t>こうむいん</t>
+  </si>
+  <si>
+    <t>Government Employee \ Public Servant</t>
+  </si>
+  <si>
+    <t>交際</t>
+  </si>
+  <si>
+    <t>こうさい</t>
+  </si>
+  <si>
+    <t>Go out with \ Associate with</t>
+  </si>
+  <si>
+    <t>国際</t>
+  </si>
+  <si>
+    <t xml:space="preserve">こくさい 
+</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>国際的</t>
+  </si>
+  <si>
+    <t>こくさいてき</t>
+  </si>
+  <si>
+    <t>実際</t>
+  </si>
+  <si>
+    <t>じっさい</t>
+  </si>
+  <si>
+    <t>Fact \ Actuality</t>
+  </si>
+  <si>
+    <t>Condition(s) \ Term(s)</t>
+  </si>
+  <si>
+    <t>そうり臣じん</t>
+  </si>
+  <si>
+    <t>そうりだいじん</t>
+  </si>
+  <si>
+    <t>Prime Minister</t>
+  </si>
+  <si>
+    <t>大臣</t>
+  </si>
+  <si>
+    <t>だいじん</t>
+  </si>
+  <si>
+    <t>Minister</t>
+  </si>
+  <si>
+    <t>成人</t>
+  </si>
+  <si>
+    <t>せいじん</t>
+  </si>
+  <si>
+    <t>Adult \ Grown Up</t>
+  </si>
+  <si>
+    <t>成長</t>
+  </si>
+  <si>
+    <t>せいちょう</t>
+  </si>
+  <si>
+    <t>Grow \ Increase</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">かんせい 
+</t>
+  </si>
+  <si>
+    <t>Finish \Complete</t>
+  </si>
+  <si>
+    <t>Restrict \ Restrain</t>
+  </si>
+  <si>
+    <t>制度</t>
+  </si>
+  <si>
+    <t>せいど</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>制服</t>
+  </si>
+  <si>
+    <t>せいふく</t>
+  </si>
+  <si>
+    <t>Uniform \ Kit</t>
+  </si>
+  <si>
+    <t>政府</t>
+  </si>
+  <si>
+    <t>せいふ</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>税金</t>
+  </si>
+  <si>
+    <t>ぜいきん</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>総り臣じん</t>
+  </si>
+  <si>
+    <t>総りそうじん</t>
+  </si>
+  <si>
+    <t>団体</t>
+  </si>
+  <si>
+    <t>だんたい</t>
+  </si>
+  <si>
+    <t>Organization \ Group</t>
+  </si>
+  <si>
+    <t>団地</t>
+  </si>
+  <si>
+    <t>だんち</t>
+  </si>
+  <si>
+    <t>Housing Complex \ Estate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">せいふ 
+</t>
+  </si>
+  <si>
+    <t>平和</t>
+  </si>
+  <si>
+    <t>へいわ</t>
+  </si>
+  <si>
+    <t>Peace</t>
+  </si>
+  <si>
+    <t>事務所</t>
+  </si>
+  <si>
+    <t>じむしょ</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>事務</t>
+  </si>
+  <si>
+    <t>じむ</t>
+  </si>
+  <si>
+    <t>Clerical Work \ Office Business</t>
+  </si>
+  <si>
+    <t>公務員</t>
+  </si>
+  <si>
+    <t>Government worker \ Pubic servant</t>
+  </si>
+  <si>
+    <t>役に立つ</t>
+  </si>
+  <si>
+    <t>やくにたつ</t>
+  </si>
+  <si>
+    <t>Helpful \ Be useful</t>
+  </si>
+  <si>
+    <t>役所</t>
+  </si>
+  <si>
+    <t>やくしょ</t>
+  </si>
+  <si>
+    <t>Government Office</t>
+  </si>
+  <si>
+    <t>和室　</t>
+  </si>
+  <si>
+    <t>わしつ　</t>
+  </si>
+  <si>
+    <t>Japanese-style room</t>
+  </si>
+  <si>
+    <t>価値</t>
+  </si>
+  <si>
+    <t>かち</t>
+  </si>
+  <si>
+    <t>Value \ Worth</t>
+  </si>
+  <si>
+    <t>物価</t>
+  </si>
+  <si>
+    <t>ぶっか</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>経営</t>
+  </si>
+  <si>
+    <t>けいえい</t>
+  </si>
+  <si>
+    <t>Manage \ Run</t>
+  </si>
+  <si>
+    <t>経験</t>
+  </si>
+  <si>
+    <t>けいけん</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>経済</t>
+  </si>
+  <si>
+    <t>けいざい</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t>経済的な</t>
+  </si>
+  <si>
+    <t>けいざいてき</t>
+  </si>
+  <si>
+    <t>Economic</t>
+  </si>
+  <si>
+    <t>現在</t>
+  </si>
+  <si>
+    <t>げんざい</t>
+  </si>
+  <si>
+    <t>Current \ Present \Now</t>
+  </si>
+  <si>
+    <t>現金</t>
+  </si>
+  <si>
+    <t>げんきん</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>現代</t>
+  </si>
+  <si>
+    <t>げんだい</t>
+  </si>
+  <si>
+    <t>Modern \ Contemporary</t>
+  </si>
+  <si>
+    <t>現れる</t>
+  </si>
+  <si>
+    <t>あらわれる</t>
+  </si>
+  <si>
+    <t>Appear</t>
+  </si>
+  <si>
+    <t>現す</t>
+  </si>
+  <si>
+    <t>あらわす</t>
+  </si>
+  <si>
+    <t>Come into view</t>
+  </si>
+  <si>
+    <t>済む</t>
+  </si>
+  <si>
+    <t>すむ</t>
+  </si>
+  <si>
+    <t>To finish \ To end</t>
+  </si>
+  <si>
+    <t>Now \ Current \ Present ti,e</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>せいじ</t>
+  </si>
+  <si>
+    <t>Politics \ Government</t>
+  </si>
+  <si>
+    <t>治る</t>
+  </si>
+  <si>
+    <t>なおる</t>
+  </si>
+  <si>
+    <t>Heal \ Cure</t>
+  </si>
+  <si>
+    <t>治す</t>
+  </si>
+  <si>
+    <t>なおす</t>
+  </si>
+  <si>
+    <t>To be healed \ To be cured</t>
+  </si>
+  <si>
+    <t>優勝</t>
+  </si>
+  <si>
+    <t>ゆうしょう</t>
+  </si>
+  <si>
+    <t>Win \ Claim \Victory</t>
+  </si>
+  <si>
+    <t>勝 つ</t>
+  </si>
+  <si>
+    <t>　かつ</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>勝手</t>
+  </si>
+  <si>
+    <t>かって</t>
+  </si>
+  <si>
+    <t>(Act) Selfishly</t>
+  </si>
+  <si>
+    <t>石油</t>
+  </si>
+  <si>
+    <t>せきゆ</t>
+  </si>
+  <si>
+    <t>Petroleum Products</t>
+  </si>
+  <si>
+    <t>石</t>
+  </si>
+  <si>
+    <t>いし</t>
+  </si>
+  <si>
+    <t>Doctor \ Physician</t>
+  </si>
+  <si>
+    <t>戦争　</t>
+  </si>
+  <si>
+    <t>せんそう</t>
+  </si>
+  <si>
+    <t>War</t>
+  </si>
+  <si>
+    <t>戦う</t>
+  </si>
+  <si>
+    <t>たたかう</t>
+  </si>
+  <si>
+    <t>Fight</t>
+  </si>
+  <si>
+    <t>選手</t>
+  </si>
+  <si>
+    <t>せんしゅ</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>選ぶ</t>
+  </si>
+  <si>
+    <t>えらぶ</t>
+  </si>
+  <si>
+    <t>Chose \ Pick</t>
+  </si>
+  <si>
+    <t>戦争</t>
+  </si>
+  <si>
+    <t>値段</t>
+  </si>
+  <si>
+    <t>ねだん</t>
+  </si>
+  <si>
+    <t>段ボール</t>
+  </si>
+  <si>
+    <t>だんボール</t>
+  </si>
+  <si>
+    <t>Cardboard</t>
+  </si>
+  <si>
+    <t>値上がり</t>
+  </si>
+  <si>
+    <t>ねあがります</t>
+  </si>
+  <si>
+    <t>(Price) Rise</t>
+  </si>
+  <si>
+    <t>しょう油</t>
+  </si>
+  <si>
+    <t>しょうゆ</t>
+  </si>
+  <si>
+    <t>Sou Sauce</t>
+  </si>
+  <si>
+    <t>Petrolem Products</t>
+  </si>
+  <si>
+    <t>油</t>
+  </si>
+  <si>
+    <t>あぶら</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>女優</t>
+  </si>
+  <si>
+    <t>じょゆう</t>
+  </si>
+  <si>
+    <t>Actress</t>
+  </si>
+  <si>
+    <t>優しい</t>
+  </si>
+  <si>
+    <t>やさしい</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>解決</t>
+  </si>
+  <si>
+    <t>かいけつ</t>
+  </si>
+  <si>
+    <t>Solve\Resolve</t>
+  </si>
+  <si>
+    <t>解説</t>
+  </si>
+  <si>
+    <t>かいせつ</t>
+  </si>
+  <si>
+    <t>Explain</t>
+  </si>
+  <si>
+    <t>解答</t>
+  </si>
+  <si>
+    <t>かいとう</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>理解</t>
+  </si>
+  <si>
+    <t>りかい</t>
+  </si>
+  <si>
+    <t>Understand</t>
+  </si>
+  <si>
+    <t>合格</t>
+  </si>
+  <si>
+    <t>ごうかく</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>資格</t>
+  </si>
+  <si>
+    <t>しかく</t>
+  </si>
+  <si>
+    <t>Qualification</t>
+  </si>
+  <si>
+    <t>性格</t>
+  </si>
+  <si>
+    <t>せいかく</t>
+  </si>
+  <si>
+    <t>Pesonality\Character</t>
+  </si>
+  <si>
+    <t>簡単</t>
+  </si>
+  <si>
+    <t>かんたん</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>芸術</t>
+  </si>
+  <si>
+    <t>げいじゅつ</t>
+  </si>
+  <si>
+    <t>Arts</t>
+  </si>
+  <si>
+    <t>欠席</t>
+  </si>
+  <si>
+    <t>けっせき</t>
+  </si>
+  <si>
+    <t>Be Absent</t>
+  </si>
+  <si>
+    <t>欠点</t>
+  </si>
+  <si>
+    <t>けってん</t>
+  </si>
+  <si>
+    <t>Drawback\Disadvantage</t>
+  </si>
+  <si>
+    <t>雑誌</t>
+  </si>
+  <si>
+    <t>ざっし</t>
+  </si>
+  <si>
+    <t>Magazine</t>
+  </si>
+  <si>
+    <t>私立</t>
+  </si>
+  <si>
+    <t>しりつ</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>資料</t>
+  </si>
+  <si>
+    <t>しりょう</t>
+  </si>
+  <si>
+    <t>Documents</t>
+  </si>
+  <si>
+    <t>辞書</t>
+  </si>
+  <si>
+    <t>じしょ</t>
+  </si>
+  <si>
+    <t>Dictionary</t>
+  </si>
+  <si>
+    <t>授業</t>
+  </si>
+  <si>
+    <t>じゅぎょう</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>教授</t>
+  </si>
+  <si>
+    <t>きょうじゅ</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>宿題</t>
+  </si>
+  <si>
+    <t>しゅくだい</t>
+  </si>
+  <si>
+    <t>Cafeteria</t>
+  </si>
+  <si>
+    <t>出席</t>
+  </si>
+  <si>
+    <t>しゅっせき</t>
+  </si>
+  <si>
+    <t>Be Present</t>
+  </si>
+  <si>
+    <t>卒業</t>
+  </si>
+  <si>
+    <t>そつぎょう</t>
+  </si>
+  <si>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t>単語</t>
+  </si>
+  <si>
+    <t>たんご</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>短期大学</t>
+  </si>
+  <si>
+    <t>たんきだいがく</t>
+  </si>
+  <si>
+    <t>Junior College</t>
+  </si>
+  <si>
+    <t>短所</t>
+  </si>
+  <si>
+    <t>たんしょ</t>
+  </si>
+  <si>
+    <t>Defect\Deficiency</t>
+  </si>
+  <si>
+    <t>点線</t>
+  </si>
+  <si>
+    <t>てんせん</t>
+  </si>
+  <si>
+    <t>Dotted Lines</t>
+  </si>
+  <si>
+    <t>高等学校</t>
+  </si>
+  <si>
+    <t>こうとうがっこう</t>
+  </si>
+  <si>
+    <t>High School</t>
+  </si>
+  <si>
+    <t>文法</t>
+  </si>
+  <si>
+    <t>ぶんぽう</t>
+  </si>
+  <si>
+    <t>Grammer</t>
+  </si>
+  <si>
+    <t>方法</t>
+  </si>
+  <si>
+    <t>ほうほう</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>公立</t>
+  </si>
+  <si>
+    <t>こうりつ</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>国立</t>
+  </si>
+  <si>
+    <t>こくりつ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -577,17 +3106,37 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -595,13 +3144,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,16 +3399,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C1022"/>
+  <dimension ref="A1:D1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A369" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A306" sqref="A306:XFD306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1503,7 +4082,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>178</v>
       </c>
@@ -1514,328 +4093,3477 @@
         <v>176</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="1:4" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="1:4" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="1:4" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="1:4" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D134" s="2"/>
+    </row>
+    <row r="135" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D135" s="2"/>
+    </row>
+    <row r="136" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D136" s="2"/>
+    </row>
+    <row r="137" spans="1:4" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="52.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+    </row>
+    <row r="176" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A259" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A261" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A263" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A264" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A306" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A309" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A310" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A313" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A314" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A315" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A317" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A318" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A319" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A323" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A324" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A325" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A326" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A328" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A329" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A330" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A331" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A333" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A334" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A335" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A336" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A337" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A338" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A339" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A340" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A341" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A342" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A346" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A347" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A348" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A349" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A351" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A352" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A353" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A355" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A356" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A357" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A358" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A359" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A360" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A361" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A362" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A363" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A364" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A365" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A366" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A367" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A368" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A369" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A370" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A371" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A372" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A373" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A374" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A375" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A376" s="2"/>
+      <c r="B376" s="2"/>
+      <c r="C376" s="2"/>
+    </row>
+    <row r="377" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="378" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="379" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="380" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="381" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="382" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="383" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="384" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="385" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="386" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="387" ht="13.2" x14ac:dyDescent="0.25"/>
@@ -2463,17 +8191,6 @@
     <row r="1009" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="1010" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="1011" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="1012" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="1013" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="1014" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="1015" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="1016" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="1017" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="1018" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="1019" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="1020" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="1021" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="1022" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/N3_Kanji.xlsx
+++ b/N3_Kanji.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProGramming_Projects\Python\KanjiBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Japanese\XLXS file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE17332-4F6F-43F5-9825-4BB80D4F3D8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970A1CAD-F7BE-45E5-8CBC-590169BC4E5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3399,16 +3399,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D1011"/>
+  <dimension ref="A1:F1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A306" sqref="A306:XFD306"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" customWidth="1"/>
+    <col min="1" max="1" width="35.21875" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4643,7 +4644,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>293</v>
       </c>
@@ -4654,7 +4655,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>294</v>
       </c>
@@ -4665,7 +4666,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>293</v>
       </c>
@@ -4676,2894 +4677,3154 @@
         <v>333</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>351</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="2" t="s">
-        <v>353</v>
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>355</v>
+      <c r="C117" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="2" t="s">
-        <v>356</v>
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>358</v>
+      <c r="C118" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>360</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D119" s="2"/>
-    </row>
-    <row r="120" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="2" t="s">
-        <v>362</v>
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>364</v>
+      <c r="C120" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="D120" s="2"/>
-    </row>
-    <row r="121" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="2" t="s">
-        <v>365</v>
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>367</v>
+      <c r="C121" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>369</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D122" s="2"/>
-    </row>
-    <row r="123" spans="1:4" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>372</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>375</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D124" s="2"/>
-    </row>
-    <row r="125" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="2" t="s">
-        <v>377</v>
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="3" t="s">
+        <v>379</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>379</v>
+      <c r="C125" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="D125" s="2"/>
-    </row>
-    <row r="126" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="2" t="s">
-        <v>380</v>
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>382</v>
+      <c r="C126" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="D126" s="2"/>
-    </row>
-    <row r="127" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>384</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D127" s="2"/>
-    </row>
-    <row r="128" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="2" t="s">
-        <v>386</v>
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>388</v>
+      <c r="C128" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="D128" s="2"/>
-    </row>
-    <row r="129" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="2" t="s">
-        <v>389</v>
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>391</v>
+      <c r="C129" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="D129" s="2"/>
-    </row>
-    <row r="130" spans="1:4" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>393</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D130" s="2"/>
-    </row>
-    <row r="131" spans="1:4" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>372</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D131" s="2"/>
-    </row>
-    <row r="132" spans="1:4" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>396</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D132" s="2"/>
-    </row>
-    <row r="133" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>399</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D133" s="2"/>
-    </row>
-    <row r="134" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="2" t="s">
-        <v>401</v>
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="3" t="s">
+        <v>403</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C134" s="3" t="s">
-        <v>403</v>
+      <c r="C134" s="2" t="s">
+        <v>401</v>
       </c>
       <c r="D134" s="2"/>
-    </row>
-    <row r="135" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="2" t="s">
-        <v>404</v>
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="3" t="s">
+        <v>406</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C135" s="3" t="s">
-        <v>406</v>
+      <c r="C135" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="D135" s="2"/>
-    </row>
-    <row r="136" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D136" s="2"/>
-    </row>
-    <row r="137" spans="1:4" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>411</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
+      </c>
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C138" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F138" s="2"/>
+    </row>
+    <row r="139" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>417</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
+      </c>
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="2" t="s">
-        <v>404</v>
+      <c r="C140" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F140" s="2"/>
+    </row>
+    <row r="141" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="3" t="s">
+        <v>422</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C141" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C141" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>424</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>427</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>426</v>
+      </c>
+      <c r="F143" s="2"/>
+    </row>
+    <row r="144" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>430</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>429</v>
+      </c>
+      <c r="F144" s="2"/>
+    </row>
+    <row r="145" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>433</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="2" t="s">
-        <v>413</v>
+        <v>432</v>
+      </c>
+      <c r="F145" s="2"/>
+    </row>
+    <row r="146" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C146" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F146" s="2"/>
+    </row>
+    <row r="147" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>437</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
+      </c>
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="3" t="s">
+        <v>441</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C148" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C148" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F148" s="2"/>
+    </row>
+    <row r="149" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>443</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>442</v>
+      </c>
+      <c r="F149" s="2"/>
+    </row>
+    <row r="150" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>446</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
+      </c>
+      <c r="F150" s="2"/>
+    </row>
+    <row r="151" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="3" t="s">
+        <v>450</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C151" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="2" t="s">
-        <v>451</v>
+      <c r="C151" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F151" s="2"/>
+    </row>
+    <row r="152" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C152" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="2" t="s">
-        <v>454</v>
+      <c r="C152" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F152" s="2"/>
+    </row>
+    <row r="153" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="3" t="s">
+        <v>456</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="2" t="s">
-        <v>457</v>
+      <c r="C153" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F153" s="2"/>
+    </row>
+    <row r="154" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="3" t="s">
+        <v>459</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C154" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C154" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F154" s="2"/>
+    </row>
+    <row r="155" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>461</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="2" t="s">
-        <v>448</v>
+        <v>460</v>
+      </c>
+      <c r="F155" s="2"/>
+    </row>
+    <row r="156" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="3" t="s">
+        <v>463</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C156" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F156" s="2"/>
+    </row>
+    <row r="157" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>465</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
+      </c>
+      <c r="F157" s="2"/>
+    </row>
+    <row r="158" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="3" t="s">
+        <v>469</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C158" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="F158" s="2"/>
+    </row>
+    <row r="159" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>369</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>368</v>
+      </c>
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>471</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+      <c r="F160" s="2"/>
+    </row>
+    <row r="161" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>474</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>473</v>
+      </c>
+      <c r="F161" s="2"/>
+    </row>
+    <row r="162" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>477</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
+      </c>
+      <c r="F162" s="2"/>
+    </row>
+    <row r="163" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="3" t="s">
+        <v>481</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C163" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C163" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F163" s="2"/>
+    </row>
+    <row r="164" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>483</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>482</v>
+      </c>
+      <c r="F164" s="2"/>
+    </row>
+    <row r="165" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>486</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
+      </c>
+      <c r="F165" s="2"/>
+    </row>
+    <row r="166" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C166" s="3" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C166" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F166" s="2"/>
+    </row>
+    <row r="167" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>492</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>491</v>
+      </c>
+      <c r="F167" s="2"/>
+    </row>
+    <row r="168" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>495</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>494</v>
+      </c>
+      <c r="F168" s="2"/>
+    </row>
+    <row r="169" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>498</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="2" t="s">
-        <v>395</v>
+        <v>497</v>
+      </c>
+      <c r="F169" s="2"/>
+    </row>
+    <row r="170" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="3" t="s">
+        <v>500</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C170" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="52.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C170" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F170" s="2"/>
+    </row>
+    <row r="171" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>502</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>501</v>
+      </c>
+      <c r="F171" s="2"/>
+    </row>
+    <row r="172" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>384</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="2" t="s">
-        <v>505</v>
+        <v>383</v>
+      </c>
+      <c r="F172" s="2"/>
+    </row>
+    <row r="173" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="3" t="s">
+        <v>507</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="C173" s="3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="2" t="s">
-        <v>508</v>
+      <c r="C173" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F173" s="2"/>
+    </row>
+    <row r="174" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="3" t="s">
+        <v>510</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C174" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C174" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F174" s="2"/>
+    </row>
+    <row r="175" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
-    </row>
-    <row r="176" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F175" s="5"/>
+    </row>
+    <row r="176" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>512</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+      <c r="F176" s="2"/>
+    </row>
+    <row r="177" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>515</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
+      </c>
+      <c r="F177" s="2"/>
+    </row>
+    <row r="178" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="3" t="s">
+        <v>519</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C178" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="2" t="s">
-        <v>520</v>
+      <c r="C178" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F178" s="2"/>
+    </row>
+    <row r="179" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="3" t="s">
+        <v>522</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C179" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="2" t="s">
-        <v>523</v>
+      <c r="C179" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F179" s="2"/>
+    </row>
+    <row r="180" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="3" t="s">
+        <v>525</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="C180" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="2" t="s">
-        <v>526</v>
+      <c r="C180" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F180" s="2"/>
+    </row>
+    <row r="181" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C181" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C181" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F181" s="2"/>
+    </row>
+    <row r="182" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
-        <v>529</v>
+        <v>276</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>295</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>529</v>
+      </c>
+      <c r="F182" s="2"/>
+    </row>
+    <row r="183" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>296</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+      <c r="F183" s="2"/>
+    </row>
+    <row r="184" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>297</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
+      </c>
+      <c r="F184" s="2"/>
+    </row>
+    <row r="185" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="3" t="s">
+        <v>536</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C185" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C185" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="F185" s="2"/>
+    </row>
+    <row r="186" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>538</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>537</v>
+      </c>
+      <c r="F186" s="2"/>
+    </row>
+    <row r="187" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>541</v>
       </c>
       <c r="C187" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F187" s="2"/>
+    </row>
+    <row r="188" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="2" t="s">
         <v>542</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="2" t="s">
-        <v>543</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>544</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
+      </c>
+      <c r="F188" s="2"/>
+    </row>
+    <row r="189" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="3" t="s">
+        <v>547</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="C189" s="3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C189" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F189" s="2"/>
+    </row>
+    <row r="190" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>549</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>548</v>
+      </c>
+      <c r="F190" s="2"/>
+    </row>
+    <row r="191" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>552</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
+      </c>
+      <c r="F191" s="2"/>
+    </row>
+    <row r="192" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="3" t="s">
+        <v>556</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="C192" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C192" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="F192" s="2"/>
+    </row>
+    <row r="193" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>558</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>557</v>
+      </c>
+      <c r="F193" s="2"/>
+    </row>
+    <row r="194" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>561</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>560</v>
+      </c>
+      <c r="F194" s="2"/>
+    </row>
+    <row r="195" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>564</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
+      </c>
+      <c r="F195" s="2"/>
+    </row>
+    <row r="196" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="3" t="s">
+        <v>568</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C196" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C196" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F196" s="2"/>
+    </row>
+    <row r="197" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>570</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>569</v>
+      </c>
+      <c r="F197" s="2"/>
+    </row>
+    <row r="198" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>573</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+      <c r="F198" s="2"/>
+    </row>
+    <row r="199" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>576</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
+      </c>
+      <c r="F199" s="2"/>
+    </row>
+    <row r="200" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="3" t="s">
+        <v>580</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="C200" s="3" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C200" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F200" s="2"/>
+    </row>
+    <row r="201" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>582</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+      <c r="F201" s="2"/>
+    </row>
+    <row r="202" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>585</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>584</v>
+      </c>
+      <c r="F202" s="2"/>
+    </row>
+    <row r="203" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>588</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>587</v>
+      </c>
+      <c r="F203" s="2"/>
+    </row>
+    <row r="204" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>591</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>590</v>
+      </c>
+      <c r="F204" s="2"/>
+    </row>
+    <row r="205" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
-        <v>593</v>
+        <v>539</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>594</v>
       </c>
       <c r="C205" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="F205" s="2"/>
+    </row>
+    <row r="206" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="2" t="s">
         <v>539</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="2" t="s">
-        <v>595</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>596</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
+      </c>
+      <c r="F206" s="2"/>
+    </row>
+    <row r="207" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="3" t="s">
+        <v>599</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="C207" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="2" t="s">
-        <v>600</v>
+      <c r="C207" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="F207" s="2"/>
+    </row>
+    <row r="208" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="3" t="s">
+        <v>602</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C208" s="3" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C208" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F208" s="2"/>
+    </row>
+    <row r="209" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>604</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>603</v>
+      </c>
+      <c r="F209" s="2"/>
+    </row>
+    <row r="210" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>607</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>606</v>
+      </c>
+      <c r="F210" s="2"/>
+    </row>
+    <row r="211" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>610</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>609</v>
+      </c>
+      <c r="F211" s="2"/>
+    </row>
+    <row r="212" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>613</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
+      </c>
+      <c r="F212" s="2"/>
+    </row>
+    <row r="213" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="3" t="s">
+        <v>617</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C213" s="3" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C213" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="F213" s="2"/>
+    </row>
+    <row r="214" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>591</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="2" t="s">
-        <v>618</v>
+        <v>590</v>
+      </c>
+      <c r="F214" s="2"/>
+    </row>
+    <row r="215" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="3" t="s">
+        <v>620</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="C215" s="3" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C215" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="F215" s="2"/>
+    </row>
+    <row r="216" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>622</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>621</v>
+      </c>
+      <c r="F216" s="2"/>
+    </row>
+    <row r="217" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>625</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="2" t="s">
-        <v>627</v>
+        <v>624</v>
+      </c>
+      <c r="F217" s="2"/>
+    </row>
+    <row r="218" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="3" t="s">
+        <v>629</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="C218" s="3" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C218" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="F218" s="2"/>
+    </row>
+    <row r="219" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>631</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
+      </c>
+      <c r="F219" s="2"/>
+    </row>
+    <row r="220" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="3" t="s">
+        <v>635</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C220" s="3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C220" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="F220" s="2"/>
+    </row>
+    <row r="221" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>637</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>636</v>
+      </c>
+      <c r="F221" s="2"/>
+    </row>
+    <row r="222" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>640</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>639</v>
+      </c>
+      <c r="F222" s="2"/>
+    </row>
+    <row r="223" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
-        <v>642</v>
+        <v>51</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>643</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>642</v>
+      </c>
+      <c r="F223" s="2"/>
+    </row>
+    <row r="224" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>645</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>644</v>
+      </c>
+      <c r="F224" s="2"/>
+    </row>
+    <row r="225" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>647</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>646</v>
+      </c>
+      <c r="F225" s="2"/>
+    </row>
+    <row r="226" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>650</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>649</v>
+      </c>
+      <c r="F226" s="2"/>
+    </row>
+    <row r="227" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>653</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>652</v>
+      </c>
+      <c r="F227" s="2"/>
+    </row>
+    <row r="228" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>656</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>655</v>
+      </c>
+      <c r="F228" s="2"/>
+    </row>
+    <row r="229" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>658</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="2" t="s">
-        <v>660</v>
+        <v>646</v>
+      </c>
+      <c r="F229" s="2"/>
+    </row>
+    <row r="230" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="3" t="s">
+        <v>662</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="C230" s="3" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="2" t="s">
-        <v>663</v>
+      <c r="C230" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="F230" s="2"/>
+    </row>
+    <row r="231" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="3" t="s">
+        <v>665</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="C231" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C231" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="F231" s="2"/>
+    </row>
+    <row r="232" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>650</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="2" t="s">
-        <v>666</v>
+        <v>649</v>
+      </c>
+      <c r="F232" s="2"/>
+    </row>
+    <row r="233" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="3" t="s">
+        <v>668</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="C233" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C233" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="F233" s="2"/>
+    </row>
+    <row r="234" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>670</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+      <c r="F234" s="2"/>
+    </row>
+    <row r="235" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>637</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>636</v>
+      </c>
+      <c r="F235" s="2"/>
+    </row>
+    <row r="236" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
-        <v>672</v>
+        <v>565</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>673</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>672</v>
+      </c>
+      <c r="F236" s="2"/>
+    </row>
+    <row r="237" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
-        <v>335</v>
+        <v>675</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>674</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>335</v>
+      </c>
+      <c r="F237" s="2"/>
+    </row>
+    <row r="238" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
-        <v>336</v>
+        <v>677</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>676</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>336</v>
+      </c>
+      <c r="F238" s="2"/>
+    </row>
+    <row r="239" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
-        <v>337</v>
+        <v>679</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>678</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>337</v>
+      </c>
+      <c r="F239" s="2"/>
+    </row>
+    <row r="240" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
-        <v>338</v>
+        <v>681</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>680</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+      <c r="F240" s="2"/>
+    </row>
+    <row r="241" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
-        <v>339</v>
+        <v>683</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>682</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+      <c r="F241" s="2"/>
+    </row>
+    <row r="242" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
-        <v>340</v>
+        <v>684</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>680</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+      <c r="F242" s="2"/>
+    </row>
+    <row r="243" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>686</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>685</v>
+      </c>
+      <c r="F243" s="2"/>
+    </row>
+    <row r="244" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="4" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>689</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="2" t="s">
-        <v>341</v>
+        <v>688</v>
+      </c>
+      <c r="F244" s="4"/>
+    </row>
+    <row r="245" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="3" t="s">
+        <v>692</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="C245" s="3" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C245" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F245" s="2"/>
+    </row>
+    <row r="246" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>693</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+      <c r="F246" s="2"/>
+    </row>
+    <row r="247" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
-        <v>343</v>
+        <v>695</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>694</v>
       </c>
       <c r="C247" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F247" s="2"/>
+    </row>
+    <row r="248" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="2" t="s">
         <v>695</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="2" t="s">
-        <v>696</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>694</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>696</v>
+      </c>
+      <c r="F248" s="2"/>
+    </row>
+    <row r="249" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="4" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>698</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>697</v>
+      </c>
+      <c r="F249" s="4"/>
+    </row>
+    <row r="250" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>686</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>700</v>
+      </c>
+      <c r="F250" s="2"/>
+    </row>
+    <row r="251" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="4" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>702</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="4" t="s">
-        <v>704</v>
+        <v>701</v>
+      </c>
+      <c r="F251" s="4"/>
+    </row>
+    <row r="252" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="6" t="s">
+        <v>706</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="C252" s="6" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A253" s="2" t="s">
-        <v>707</v>
+      <c r="C252" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="F252" s="4"/>
+    </row>
+    <row r="253" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="4" t="s">
+        <v>709</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="C253" s="4" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A254" s="2" t="s">
-        <v>710</v>
+      <c r="C253" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="F253" s="2"/>
+    </row>
+    <row r="254" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="3" t="s">
+        <v>712</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="C254" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C254" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="F254" s="2"/>
+    </row>
+    <row r="255" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>714</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>713</v>
+      </c>
+      <c r="F255" s="2"/>
+    </row>
+    <row r="256" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="4" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>717</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A257" s="2" t="s">
-        <v>344</v>
+        <v>716</v>
+      </c>
+      <c r="F256" s="4"/>
+    </row>
+    <row r="257" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="3" t="s">
+        <v>692</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="C257" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F257" s="2"/>
+    </row>
+    <row r="258" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="6" t="s">
         <v>692</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="4" t="s">
-        <v>719</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="C258" s="6" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C258" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="F258" s="4"/>
+    </row>
+    <row r="259" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
-        <v>345</v>
+        <v>431</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>720</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+      <c r="F259" s="2"/>
+    </row>
+    <row r="260" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
-        <v>346</v>
+        <v>722</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>721</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="F260" s="2"/>
+    </row>
+    <row r="261" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>724</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>723</v>
+      </c>
+      <c r="F261" s="2"/>
+    </row>
+    <row r="262" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
-        <v>347</v>
+        <v>677</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>676</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>347</v>
+      </c>
+      <c r="F262" s="2"/>
+    </row>
+    <row r="263" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>727</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>726</v>
+      </c>
+      <c r="F263" s="2"/>
+    </row>
+    <row r="264" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="4" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>730</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>729</v>
+      </c>
+      <c r="F264" s="4"/>
+    </row>
+    <row r="265" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>348</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A266" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
+      </c>
+      <c r="F265" s="2"/>
+    </row>
+    <row r="266" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="3" t="s">
+        <v>735</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="C266" s="3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C266" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="F266" s="2"/>
+    </row>
+    <row r="267" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>737</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A268" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
+      </c>
+      <c r="F267" s="2"/>
+    </row>
+    <row r="268" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="3" t="s">
+        <v>741</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="C268" s="3" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A269" s="2" t="s">
-        <v>742</v>
+      <c r="C268" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="F268" s="2"/>
+    </row>
+    <row r="269" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="3" t="s">
+        <v>744</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="C269" s="3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A270" s="2" t="s">
-        <v>745</v>
+      <c r="C269" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="F269" s="2"/>
+    </row>
+    <row r="270" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="3" t="s">
+        <v>747</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="C270" s="3" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C270" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="F270" s="2"/>
+    </row>
+    <row r="271" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>749</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>748</v>
+      </c>
+      <c r="F271" s="2"/>
+    </row>
+    <row r="272" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>752</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>751</v>
+      </c>
+      <c r="F272" s="2"/>
+    </row>
+    <row r="273" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>755</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A274" s="2" t="s">
-        <v>757</v>
+        <v>754</v>
+      </c>
+      <c r="F273" s="2"/>
+    </row>
+    <row r="274" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="3" t="s">
+        <v>759</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="C274" s="3" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A275" s="2" t="s">
-        <v>760</v>
+      <c r="C274" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="F274" s="2"/>
+    </row>
+    <row r="275" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="3" t="s">
+        <v>762</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="C275" s="3" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A276" s="2" t="s">
-        <v>763</v>
+      <c r="C275" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="F275" s="2"/>
+    </row>
+    <row r="276" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="3" t="s">
+        <v>765</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="C276" s="3" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C276" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="F276" s="2"/>
+    </row>
+    <row r="277" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>767</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A278" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
+      </c>
+      <c r="F277" s="2"/>
+    </row>
+    <row r="278" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="3" t="s">
+        <v>771</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="C278" s="3" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="2" t="s">
-        <v>772</v>
+      <c r="C278" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="F278" s="2"/>
+    </row>
+    <row r="279" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="3" t="s">
+        <v>774</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="C279" s="3" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C279" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="F279" s="2"/>
+    </row>
+    <row r="280" spans="1:6" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>776</v>
       </c>
       <c r="C280" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="F280" s="2"/>
+    </row>
+    <row r="281" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="2" t="s">
         <v>777</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="2" t="s">
-        <v>778</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>779</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>778</v>
+      </c>
+      <c r="F281" s="2"/>
+    </row>
+    <row r="282" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>781</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A283" s="2" t="s">
-        <v>754</v>
+        <v>780</v>
+      </c>
+      <c r="F282" s="2"/>
+    </row>
+    <row r="283" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="3" t="s">
+        <v>783</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="C283" s="3" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C283" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="F283" s="2"/>
+    </row>
+    <row r="284" spans="1:6" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>785</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>784</v>
+      </c>
+      <c r="F284" s="2"/>
+    </row>
+    <row r="285" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>788</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A286" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
+      </c>
+      <c r="F285" s="2"/>
+    </row>
+    <row r="286" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="3" t="s">
+        <v>792</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="C286" s="3" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C286" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="F286" s="2"/>
+    </row>
+    <row r="287" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>794</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A288" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
+      </c>
+      <c r="F287" s="2"/>
+    </row>
+    <row r="288" spans="1:6" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="3" t="s">
+        <v>798</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="C288" s="3" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="2" t="s">
-        <v>763</v>
+      <c r="C288" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="F288" s="2"/>
+    </row>
+    <row r="289" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="3" t="s">
+        <v>799</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="C289" s="3" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C289" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="F289" s="2"/>
+    </row>
+    <row r="290" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>801</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>800</v>
+      </c>
+      <c r="F290" s="2"/>
+    </row>
+    <row r="291" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>804</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>803</v>
+      </c>
+      <c r="F291" s="2"/>
+    </row>
+    <row r="292" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>807</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>806</v>
+      </c>
+      <c r="F292" s="2"/>
+    </row>
+    <row r="293" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>810</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+      <c r="F293" s="2"/>
+    </row>
+    <row r="294" spans="1:6" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
-        <v>812</v>
+        <v>786</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>813</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A295" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
+      </c>
+      <c r="F294" s="2"/>
+    </row>
+    <row r="295" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="3" t="s">
+        <v>816</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="C295" s="3" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A296" s="2" t="s">
-        <v>817</v>
+      <c r="C295" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="F295" s="2"/>
+    </row>
+    <row r="296" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="3" t="s">
+        <v>819</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="C296" s="3" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C296" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="F296" s="2"/>
+    </row>
+    <row r="297" spans="1:6" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>820</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>806</v>
+      </c>
+      <c r="F297" s="2"/>
+    </row>
+    <row r="298" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>822</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>821</v>
+      </c>
+      <c r="F298" s="2"/>
+    </row>
+    <row r="299" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>825</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A300" s="2" t="s">
-        <v>827</v>
+        <v>824</v>
+      </c>
+      <c r="F299" s="2"/>
+    </row>
+    <row r="300" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="3" t="s">
+        <v>829</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="C300" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A301" s="2" t="s">
-        <v>830</v>
+      <c r="C300" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="F300" s="2"/>
+    </row>
+    <row r="301" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="3" t="s">
+        <v>831</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="C301" s="3" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A302" s="2" t="s">
-        <v>832</v>
+      <c r="C301" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="F301" s="2"/>
+    </row>
+    <row r="302" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="3" t="s">
+        <v>834</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="C302" s="3" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A303" s="2" t="s">
-        <v>835</v>
+      <c r="C302" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="F302" s="2"/>
+    </row>
+    <row r="303" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="3" t="s">
+        <v>837</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="C303" s="3" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A304" s="2" t="s">
-        <v>838</v>
+      <c r="C303" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="F303" s="2"/>
+    </row>
+    <row r="304" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="3" t="s">
+        <v>840</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="C304" s="3" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C304" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="F304" s="2"/>
+    </row>
+    <row r="305" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>822</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>821</v>
+      </c>
+      <c r="F305" s="2"/>
+    </row>
+    <row r="306" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>842</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>841</v>
+      </c>
+      <c r="F306" s="2"/>
+    </row>
+    <row r="307" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>845</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>844</v>
+      </c>
+      <c r="F307" s="2"/>
+    </row>
+    <row r="308" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>848</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>847</v>
+      </c>
+      <c r="F308" s="2"/>
+    </row>
+    <row r="309" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>851</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>850</v>
+      </c>
+      <c r="F309" s="2"/>
+    </row>
+    <row r="310" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>854</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>853</v>
+      </c>
+      <c r="F310" s="2"/>
+    </row>
+    <row r="311" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>857</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A312" s="2" t="s">
-        <v>859</v>
+        <v>856</v>
+      </c>
+      <c r="F311" s="2"/>
+    </row>
+    <row r="312" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="3" t="s">
+        <v>861</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="C312" s="3" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C312" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="F312" s="2"/>
+    </row>
+    <row r="313" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>863</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A314" s="2" t="s">
-        <v>865</v>
+        <v>862</v>
+      </c>
+      <c r="F313" s="2"/>
+    </row>
+    <row r="314" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A314" s="3" t="s">
+        <v>867</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="C314" s="3" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C314" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="F314" s="2"/>
+    </row>
+    <row r="315" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>869</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>868</v>
+      </c>
+      <c r="F315" s="2"/>
+    </row>
+    <row r="316" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>872</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>871</v>
+      </c>
+      <c r="F316" s="2"/>
+    </row>
+    <row r="317" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>854</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A318" s="2" t="s">
-        <v>874</v>
+        <v>853</v>
+      </c>
+      <c r="F317" s="2"/>
+    </row>
+    <row r="318" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A318" s="3" t="s">
+        <v>876</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="C318" s="3" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A319" s="2" t="s">
-        <v>859</v>
+      <c r="C318" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="F318" s="2"/>
+    </row>
+    <row r="319" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A319" s="3" t="s">
+        <v>877</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="C319" s="3" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A320" s="2" t="s">
-        <v>878</v>
+      <c r="C319" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="F319" s="2"/>
+    </row>
+    <row r="320" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="3" t="s">
+        <v>880</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="C320" s="3" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C320" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="F320" s="2"/>
+    </row>
+    <row r="321" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A321" s="2" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>882</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A322" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
+      </c>
+      <c r="F321" s="2"/>
+    </row>
+    <row r="322" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="3" t="s">
+        <v>886</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="C322" s="3" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A323" s="2" t="s">
-        <v>887</v>
+      <c r="C322" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="F322" s="2"/>
+    </row>
+    <row r="323" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A323" s="3" t="s">
+        <v>889</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="C323" s="3" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C323" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="F323" s="2"/>
+    </row>
+    <row r="324" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>891</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>890</v>
+      </c>
+      <c r="F324" s="2"/>
+    </row>
+    <row r="325" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>894</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A326" s="2" t="s">
-        <v>896</v>
+        <v>893</v>
+      </c>
+      <c r="F325" s="2"/>
+    </row>
+    <row r="326" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A326" s="3" t="s">
+        <v>898</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="C326" s="3" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A327" s="2" t="s">
-        <v>899</v>
+      <c r="C326" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="F326" s="2"/>
+    </row>
+    <row r="327" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="3" t="s">
+        <v>901</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="C327" s="3" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C327" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="F327" s="2"/>
+    </row>
+    <row r="328" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>903</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>902</v>
+      </c>
+      <c r="F328" s="2"/>
+    </row>
+    <row r="329" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A329" s="2" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>906</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>905</v>
+      </c>
+      <c r="F329" s="2"/>
+    </row>
+    <row r="330" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>909</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>908</v>
+      </c>
+      <c r="F330" s="2"/>
+    </row>
+    <row r="331" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A331" s="2" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>912</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>911</v>
+      </c>
+      <c r="F331" s="2"/>
+    </row>
+    <row r="332" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>903</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>914</v>
+      </c>
+      <c r="F332" s="2"/>
+    </row>
+    <row r="333" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
-        <v>915</v>
+        <v>846</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>915</v>
+      </c>
+      <c r="F333" s="2"/>
+    </row>
+    <row r="334" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>918</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>917</v>
+      </c>
+      <c r="F334" s="2"/>
+    </row>
+    <row r="335" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>842</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>841</v>
+      </c>
+      <c r="F335" s="2"/>
+    </row>
+    <row r="336" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>921</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>920</v>
+      </c>
+      <c r="F336" s="2"/>
+    </row>
+    <row r="337" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
-        <v>915</v>
+        <v>846</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>915</v>
+      </c>
+      <c r="F337" s="2"/>
+    </row>
+    <row r="338" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A338" s="2" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>924</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A339" s="2" t="s">
-        <v>896</v>
+        <v>923</v>
+      </c>
+      <c r="F338" s="2"/>
+    </row>
+    <row r="339" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A339" s="3" t="s">
+        <v>926</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="C339" s="3" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C339" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="F339" s="2"/>
+    </row>
+    <row r="340" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>928</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>927</v>
+      </c>
+      <c r="F340" s="2"/>
+    </row>
+    <row r="341" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
-        <v>887</v>
+        <v>728</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>888</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>887</v>
+      </c>
+      <c r="F341" s="2"/>
+    </row>
+    <row r="342" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A342" s="2" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>931</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>930</v>
+      </c>
+      <c r="F342" s="2"/>
+    </row>
+    <row r="343" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A343" s="2" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>934</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>933</v>
+      </c>
+      <c r="F343" s="2"/>
+    </row>
+    <row r="344" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>937</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>936</v>
+      </c>
+      <c r="F344" s="2"/>
+    </row>
+    <row r="345" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A345" s="2" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>940</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>939</v>
+      </c>
+      <c r="F345" s="2"/>
+    </row>
+    <row r="346" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>943</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>942</v>
+      </c>
+      <c r="F346" s="2"/>
+    </row>
+    <row r="347" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>946</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>945</v>
+      </c>
+      <c r="F347" s="2"/>
+    </row>
+    <row r="348" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>949</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>948</v>
+      </c>
+      <c r="F348" s="2"/>
+    </row>
+    <row r="349" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>952</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A350" s="2" t="s">
-        <v>954</v>
+        <v>951</v>
+      </c>
+      <c r="F349" s="2"/>
+    </row>
+    <row r="350" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="3" t="s">
+        <v>956</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="C350" s="3" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C350" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="F350" s="2"/>
+    </row>
+    <row r="351" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>958</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>957</v>
+      </c>
+      <c r="F351" s="2"/>
+    </row>
+    <row r="352" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A352" s="2" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>961</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>960</v>
+      </c>
+      <c r="F352" s="2"/>
+    </row>
+    <row r="353" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A353" s="2" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>964</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A354" s="2" t="s">
-        <v>966</v>
+        <v>963</v>
+      </c>
+      <c r="F353" s="2"/>
+    </row>
+    <row r="354" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="3" t="s">
+        <v>968</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="C354" s="3" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C354" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="F354" s="2"/>
+    </row>
+    <row r="355" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A355" s="2" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>970</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>969</v>
+      </c>
+      <c r="F355" s="2"/>
+    </row>
+    <row r="356" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A356" s="2" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>973</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>972</v>
+      </c>
+      <c r="F356" s="2"/>
+    </row>
+    <row r="357" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>976</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>975</v>
+      </c>
+      <c r="F357" s="2"/>
+    </row>
+    <row r="358" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>970</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>969</v>
+      </c>
+      <c r="F358" s="2"/>
+    </row>
+    <row r="359" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>979</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>978</v>
+      </c>
+      <c r="F359" s="2"/>
+    </row>
+    <row r="360" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>982</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>981</v>
+      </c>
+      <c r="F360" s="2"/>
+    </row>
+    <row r="361" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A361" s="2" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>985</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>984</v>
+      </c>
+      <c r="F361" s="2"/>
+    </row>
+    <row r="362" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A362" s="2" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>988</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+      <c r="F362" s="2"/>
+    </row>
+    <row r="363" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A363" s="2" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>991</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>990</v>
+      </c>
+      <c r="F363" s="2"/>
+    </row>
+    <row r="364" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>994</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>993</v>
+      </c>
+      <c r="F364" s="2"/>
+    </row>
+    <row r="365" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A365" s="2" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>997</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>996</v>
+      </c>
+      <c r="F365" s="2"/>
+    </row>
+    <row r="366" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>1000</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A367" s="2" t="s">
-        <v>1002</v>
+        <v>999</v>
+      </c>
+      <c r="F366" s="2"/>
+    </row>
+    <row r="367" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A367" s="3" t="s">
+        <v>1004</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="C367" s="3" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C367" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F367" s="2"/>
+    </row>
+    <row r="368" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A368" s="2" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>1006</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A369" s="2" t="s">
-        <v>966</v>
+        <v>1005</v>
+      </c>
+      <c r="F368" s="2"/>
+    </row>
+    <row r="369" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A369" s="3" t="s">
+        <v>968</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="C369" s="3" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C369" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="F369" s="2"/>
+    </row>
+    <row r="370" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A370" s="2" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>943</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>942</v>
+      </c>
+      <c r="F370" s="2"/>
+    </row>
+    <row r="371" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A371" s="2" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>1009</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1008</v>
+      </c>
+      <c r="F371" s="2"/>
+    </row>
+    <row r="372" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A372" s="2" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>1012</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1011</v>
+      </c>
+      <c r="F372" s="2"/>
+    </row>
+    <row r="373" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A373" s="2" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>1015</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1014</v>
+      </c>
+      <c r="F373" s="2"/>
+    </row>
+    <row r="374" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A374" s="2" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>1018</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1017</v>
+      </c>
+      <c r="F374" s="2"/>
+    </row>
+    <row r="375" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A375" s="2" t="s">
-        <v>1020</v>
+        <v>777</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>1021</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1020</v>
+      </c>
+      <c r="F375" s="2"/>
+    </row>
+    <row r="376" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
     </row>
-    <row r="377" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="378" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="379" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="380" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="381" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="382" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="383" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="384" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="377" spans="1:6" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="378" spans="1:6" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="379" spans="1:6" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="380" spans="1:6" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="381" spans="1:6" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="382" spans="1:6" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="383" spans="1:6" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="384" spans="1:6" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="385" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="386" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="387" ht="13.2" x14ac:dyDescent="0.25"/>

--- a/N3_Kanji.xlsx
+++ b/N3_Kanji.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Japanese\XLXS file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProGramming_Projects\Python\KanjiBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970A1CAD-F7BE-45E5-8CBC-590169BC4E5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E06AC0-5DBF-4EAF-9CF8-946362C2908C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="1458">
   <si>
     <t>辺り</t>
   </si>
@@ -3089,13 +3089,1321 @@
   </si>
   <si>
     <t>こくりつ</t>
+  </si>
+  <si>
+    <t>Paints</t>
+  </si>
+  <si>
+    <t>staircase</t>
+  </si>
+  <si>
+    <t>Be active in\Engange in</t>
+  </si>
+  <si>
+    <t>musical instrument</t>
+  </si>
+  <si>
+    <t>tablewares\dishes</t>
+  </si>
+  <si>
+    <t>Earth</t>
+  </si>
+  <si>
+    <t>Light Bulb</t>
+  </si>
+  <si>
+    <t>school meal</t>
+  </si>
+  <si>
+    <t>salary\wages</t>
+  </si>
+  <si>
+    <t>after all\in the event</t>
+  </si>
+  <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>Asset\Property</t>
+  </si>
+  <si>
+    <t>Calculations</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>subtraction</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>head office</t>
+  </si>
+  <si>
+    <t>Spending//expenditure</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Repair</t>
+  </si>
+  <si>
+    <t>undergo\training</t>
+  </si>
+  <si>
+    <t>Emergency Exit</t>
+  </si>
+  <si>
+    <t>Leave Early</t>
+  </si>
+  <si>
+    <t>Discharge\ Leave hospital</t>
+  </si>
+  <si>
+    <t>your house</t>
+  </si>
+  <si>
+    <t>housing</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Forcast\Predict</t>
+  </si>
+  <si>
+    <t>Weather forecast</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>king</t>
+  </si>
+  <si>
+    <t>queen</t>
+  </si>
+  <si>
+    <t>introduction</t>
+  </si>
+  <si>
+    <t>moderator\host</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>ceremony</t>
+  </si>
+  <si>
+    <t>worries</t>
+  </si>
+  <si>
+    <t>excuse</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>prepare</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>originate\graduate from</t>
+  </si>
+  <si>
+    <t>promise</t>
+  </si>
+  <si>
+    <t>special delivery\express mail</t>
+  </si>
+  <si>
+    <t>develop\grow</t>
+  </si>
+  <si>
+    <t>commemorate</t>
+  </si>
+  <si>
+    <t>gynecology department</t>
+  </si>
+  <si>
+    <t>house wife</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>book\reserve</t>
+  </si>
+  <si>
+    <t>thank you\showing gratitude</t>
+  </si>
+  <si>
+    <t>old people</t>
+  </si>
+  <si>
+    <t>love\affection</t>
+  </si>
+  <si>
+    <t>chemistry</t>
+  </si>
+  <si>
+    <t>culture</t>
+  </si>
+  <si>
+    <t>possible</t>
+  </si>
+  <si>
+    <t>inspection\examine</t>
+  </si>
+  <si>
+    <t>genius</t>
+  </si>
+  <si>
+    <t>talent</t>
+  </si>
+  <si>
+    <t>engage in soul-searching</t>
+  </si>
+  <si>
+    <t>responsibility</t>
+  </si>
+  <si>
+    <t>impression</t>
+  </si>
+  <si>
+    <t>expect</t>
+  </si>
+  <si>
+    <t>ideal</t>
+  </si>
+  <si>
+    <t>satisfaction</t>
+  </si>
+  <si>
+    <t>dis-satisfaction</t>
+  </si>
+  <si>
+    <t>lack\be deficient in</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>storage\preserve</t>
+  </si>
+  <si>
+    <t>opposite\reverse</t>
+  </si>
+  <si>
+    <t>reading</t>
+  </si>
+  <si>
+    <t>ability\capacity</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>doubt\question</t>
+  </si>
+  <si>
+    <t>educational background\academic record</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t>intrest</t>
+  </si>
+  <si>
+    <t>related to\connected with</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>transportation facility\public transport</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>going to work</t>
+  </si>
+  <si>
+    <t>commute to work</t>
+  </si>
+  <si>
+    <t>rest\holiday</t>
+  </si>
+  <si>
+    <t>consecutive holidays</t>
+  </si>
+  <si>
+    <t>you\boy</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>bleeding</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>happiness</t>
+  </si>
+  <si>
+    <t>unhappiness</t>
+  </si>
+  <si>
+    <t>perfume</t>
+  </si>
+  <si>
+    <t>fragrance</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>dentistry</t>
+  </si>
+  <si>
+    <t>tooth decay</t>
+  </si>
+  <si>
+    <t>dentist</t>
+  </si>
+  <si>
+    <t>interview</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>get well\repair</t>
+  </si>
+  <si>
+    <t>straight line</t>
+  </si>
+  <si>
+    <t>other person</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>house\home</t>
+  </si>
+  <si>
+    <t>couple</t>
+  </si>
+  <si>
+    <t>partner</t>
+  </si>
+  <si>
+    <t>year end party</t>
+  </si>
+  <si>
+    <t>lost property</t>
+  </si>
+  <si>
+    <t>dream</t>
+  </si>
+  <si>
+    <t>lost in\wrapped up in</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>excursion\field trip</t>
+  </si>
+  <si>
+    <t>billion</t>
+  </si>
+  <si>
+    <t>audience\spectators</t>
+  </si>
+  <si>
+    <t>tourism</t>
+  </si>
+  <si>
+    <t>objectively</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>character\personally</t>
+  </si>
+  <si>
+    <t>traffic accident</t>
+  </si>
+  <si>
+    <t>accident</t>
+  </si>
+  <si>
+    <t>certificate\testimonial</t>
+  </si>
+  <si>
+    <t>aircraft</t>
+  </si>
+  <si>
+    <t>postage\shipping cost</t>
+  </si>
+  <si>
+    <t>broadcast</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>farewell party\send-off party</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>railway</t>
+  </si>
+  <si>
+    <t>private railway</t>
+  </si>
+  <si>
+    <t>subway</t>
+  </si>
+  <si>
+    <t>double\twice</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>end of month</t>
+  </si>
+  <si>
+    <t>weekend</t>
+  </si>
+  <si>
+    <t>explaination</t>
+  </si>
+  <si>
+    <t>invention</t>
+  </si>
+  <si>
+    <t>road</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>highway road</t>
+  </si>
+  <si>
+    <t>center\middle</t>
+  </si>
+  <si>
+    <t>えのぐ</t>
+  </si>
+  <si>
+    <t>かいだん</t>
+  </si>
+  <si>
+    <t>せいかつ</t>
+  </si>
+  <si>
+    <t>かつどう</t>
+  </si>
+  <si>
+    <t>しょっき</t>
+  </si>
+  <si>
+    <t>ちきゅう</t>
+  </si>
+  <si>
+    <t>でんきゅう</t>
+  </si>
+  <si>
+    <t>きゅうしょう</t>
+  </si>
+  <si>
+    <t>きゅうりょう</t>
+  </si>
+  <si>
+    <t>けっきょく</t>
+  </si>
+  <si>
+    <t>やっきょく</t>
+  </si>
+  <si>
+    <t>ざんさん</t>
+  </si>
+  <si>
+    <t>けんさん</t>
+  </si>
+  <si>
+    <t>よさん</t>
+  </si>
+  <si>
+    <t>ひきざん</t>
+  </si>
+  <si>
+    <t>たしざん</t>
+  </si>
+  <si>
+    <t>しはらい</t>
+  </si>
+  <si>
+    <t>してん</t>
+  </si>
+  <si>
+    <t>ししゅつ</t>
+  </si>
+  <si>
+    <t>しゅうにゅう</t>
+  </si>
+  <si>
+    <t>しゅうり</t>
+  </si>
+  <si>
+    <t>けんしゅう</t>
+  </si>
+  <si>
+    <t>ひじょうぐち</t>
+  </si>
+  <si>
+    <t>そうたい</t>
+  </si>
+  <si>
+    <t>たいいん</t>
+  </si>
+  <si>
+    <t>おたく</t>
+  </si>
+  <si>
+    <t>じゅうたく</t>
+  </si>
+  <si>
+    <t>ほけん</t>
+  </si>
+  <si>
+    <t>よほう</t>
+  </si>
+  <si>
+    <t>てんきよほう</t>
+  </si>
+  <si>
+    <t>しょるい</t>
+  </si>
+  <si>
+    <t>げんいん</t>
+  </si>
+  <si>
+    <t>こくおう</t>
+  </si>
+  <si>
+    <t>じょおう</t>
+  </si>
+  <si>
+    <t>しょかい</t>
+  </si>
+  <si>
+    <t>しかい</t>
+  </si>
+  <si>
+    <t>きょうし</t>
+  </si>
+  <si>
+    <t>しき</t>
+  </si>
+  <si>
+    <t>しっぱい</t>
+  </si>
+  <si>
+    <t>しつれい</t>
+  </si>
+  <si>
+    <t>しつぎょう</t>
+  </si>
+  <si>
+    <t>じゅんび</t>
+  </si>
+  <si>
+    <t>しんちょう</t>
+  </si>
+  <si>
+    <t>しゅっしん</t>
+  </si>
+  <si>
+    <t>やくそく</t>
+  </si>
+  <si>
+    <t>そくたつ</t>
+  </si>
+  <si>
+    <t>はったつ</t>
+  </si>
+  <si>
+    <t>きねん</t>
+  </si>
+  <si>
+    <t>さんふじんか</t>
+  </si>
+  <si>
+    <t>しゅふ</t>
+  </si>
+  <si>
+    <t>ふつう</t>
+  </si>
+  <si>
+    <t>みらい</t>
+  </si>
+  <si>
+    <t>よやく</t>
+  </si>
+  <si>
+    <t>おれい</t>
+  </si>
+  <si>
+    <t>ろうじん</t>
+  </si>
+  <si>
+    <t>あいじょう</t>
+  </si>
+  <si>
+    <t>かがく</t>
+  </si>
+  <si>
+    <t>ぶんか</t>
+  </si>
+  <si>
+    <t>かのう</t>
+  </si>
+  <si>
+    <t>けんさ</t>
+  </si>
+  <si>
+    <t>てんさい</t>
+  </si>
+  <si>
+    <t>さいのう</t>
+  </si>
+  <si>
+    <t>はんせい</t>
+  </si>
+  <si>
+    <t>せきにん</t>
+  </si>
+  <si>
+    <t>かんそう</t>
+  </si>
+  <si>
+    <t>よそう</t>
+  </si>
+  <si>
+    <t>りそう</t>
+  </si>
+  <si>
+    <t>まんぞく</t>
+  </si>
+  <si>
+    <t>ふまん</t>
+  </si>
+  <si>
+    <t>ふそく</t>
+  </si>
+  <si>
+    <t>ごぞんじ</t>
+  </si>
+  <si>
+    <t>ほぞん</t>
+  </si>
+  <si>
+    <t>はんたい</t>
+  </si>
+  <si>
+    <t>どくじ</t>
+  </si>
+  <si>
+    <t>のうりょく</t>
+  </si>
+  <si>
+    <t>まんいん</t>
+  </si>
+  <si>
+    <t>れきし</t>
+  </si>
+  <si>
+    <t>ぎもん</t>
+  </si>
+  <si>
+    <t>がくれい</t>
+  </si>
+  <si>
+    <t>かんけい</t>
+  </si>
+  <si>
+    <t>かんれい</t>
+  </si>
+  <si>
+    <t>ぜいかん</t>
+  </si>
+  <si>
+    <t>こうつうきかん</t>
+  </si>
+  <si>
+    <t>つとめる</t>
+  </si>
+  <si>
+    <t>しゅっきん</t>
+  </si>
+  <si>
+    <t>つうきん</t>
+  </si>
+  <si>
+    <t>やすむ</t>
+  </si>
+  <si>
+    <t>れんきゅう</t>
+  </si>
+  <si>
+    <t>きみ\くん</t>
+  </si>
+  <si>
+    <t>かかり</t>
+  </si>
+  <si>
+    <t>ち</t>
+  </si>
+  <si>
+    <t>しゅっけつ</t>
+  </si>
+  <si>
+    <t>しあわせ</t>
+  </si>
+  <si>
+    <t>こうふく</t>
+  </si>
+  <si>
+    <t>ふこう</t>
+  </si>
+  <si>
+    <t>こうすい</t>
+  </si>
+  <si>
+    <t>かおり</t>
+  </si>
+  <si>
+    <t>しか</t>
+  </si>
+  <si>
+    <t>むしば</t>
+  </si>
+  <si>
+    <t>はいしゃ</t>
+  </si>
+  <si>
+    <t>めんせつ</t>
+  </si>
+  <si>
+    <t>ちょくせつ</t>
+  </si>
+  <si>
+    <t>ちょくせん</t>
+  </si>
+  <si>
+    <t>たにん</t>
+  </si>
+  <si>
+    <t>そのほか</t>
+  </si>
+  <si>
+    <t>にわ</t>
+  </si>
+  <si>
+    <t>かてい</t>
+  </si>
+  <si>
+    <t>ふうふ</t>
+  </si>
+  <si>
+    <t>おっと</t>
+  </si>
+  <si>
+    <t>ぼうねんかい</t>
+  </si>
+  <si>
+    <t>わすれもの</t>
+  </si>
+  <si>
+    <t>ゆめ</t>
+  </si>
+  <si>
+    <t>むちゅう</t>
+  </si>
+  <si>
+    <t>とおい</t>
+  </si>
+  <si>
+    <t>えんそく</t>
+  </si>
+  <si>
+    <t>おく</t>
+  </si>
+  <si>
+    <t>かんきゃく</t>
+  </si>
+  <si>
+    <t>かんこう</t>
+  </si>
+  <si>
+    <t>きゃっかんてき</t>
+  </si>
+  <si>
+    <t>こじん</t>
+  </si>
+  <si>
+    <t>こせい</t>
+  </si>
+  <si>
+    <t>こうつうじこ</t>
+  </si>
+  <si>
+    <t>じこ</t>
+  </si>
+  <si>
+    <t>しょうめいしょ</t>
+  </si>
+  <si>
+    <t>こうくうき</t>
+  </si>
+  <si>
+    <t>そうりょう</t>
+  </si>
+  <si>
+    <t>ほうそう</t>
+  </si>
+  <si>
+    <t>そうしん</t>
+  </si>
+  <si>
+    <t>そうべつかい</t>
+  </si>
+  <si>
+    <t>てつ</t>
+  </si>
+  <si>
+    <t>てつどう</t>
+  </si>
+  <si>
+    <t>してつ</t>
+  </si>
+  <si>
+    <t>ちかてつ</t>
+  </si>
+  <si>
+    <t>ばい</t>
+  </si>
+  <si>
+    <t>びょう</t>
+  </si>
+  <si>
+    <t>げつまつ</t>
+  </si>
+  <si>
+    <t>しゅうまつ</t>
+  </si>
+  <si>
+    <t>せつめい</t>
+  </si>
+  <si>
+    <t>はつめい</t>
+  </si>
+  <si>
+    <t>どうろ</t>
+  </si>
+  <si>
+    <t>せんろ</t>
+  </si>
+  <si>
+    <t>こうそくどうろ</t>
+  </si>
+  <si>
+    <t>ちゅうおう</t>
+  </si>
+  <si>
+    <t>絵の具</t>
+  </si>
+  <si>
+    <t>階段</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>活動</t>
+  </si>
+  <si>
+    <t>楽器</t>
+  </si>
+  <si>
+    <t>食器</t>
+  </si>
+  <si>
+    <t>地球</t>
+  </si>
+  <si>
+    <t>電球</t>
+  </si>
+  <si>
+    <t>給食</t>
+  </si>
+  <si>
+    <t>給料</t>
+  </si>
+  <si>
+    <t>結局</t>
+  </si>
+  <si>
+    <t>薬局</t>
+  </si>
+  <si>
+    <t>財産</t>
+  </si>
+  <si>
+    <t>計算</t>
+  </si>
+  <si>
+    <t>予算</t>
+  </si>
+  <si>
+    <t>引き算</t>
+  </si>
+  <si>
+    <t>足し算</t>
+  </si>
+  <si>
+    <t>支払い</t>
+  </si>
+  <si>
+    <t>支店</t>
+  </si>
+  <si>
+    <t>支出</t>
+  </si>
+  <si>
+    <t>収入</t>
+  </si>
+  <si>
+    <t>修理</t>
+  </si>
+  <si>
+    <t>研修</t>
+  </si>
+  <si>
+    <t>非常口</t>
+  </si>
+  <si>
+    <t>早退</t>
+  </si>
+  <si>
+    <t>退院</t>
+  </si>
+  <si>
+    <t>お宅</t>
+  </si>
+  <si>
+    <t>住宅</t>
+  </si>
+  <si>
+    <t>保険</t>
+  </si>
+  <si>
+    <t>予報</t>
+  </si>
+  <si>
+    <t>天気予報</t>
+  </si>
+  <si>
+    <t>書類</t>
+  </si>
+  <si>
+    <t>原因</t>
+  </si>
+  <si>
+    <t>国王</t>
+  </si>
+  <si>
+    <t>女王</t>
+  </si>
+  <si>
+    <t>紹介</t>
+  </si>
+  <si>
+    <t>司会</t>
+  </si>
+  <si>
+    <t>医師</t>
+  </si>
+  <si>
+    <t>教師</t>
+  </si>
+  <si>
+    <t>式</t>
+  </si>
+  <si>
+    <t>失敗</t>
+  </si>
+  <si>
+    <t>失礼</t>
+  </si>
+  <si>
+    <t>失業</t>
+  </si>
+  <si>
+    <t>準備</t>
+  </si>
+  <si>
+    <t>身長</t>
+  </si>
+  <si>
+    <t>出身</t>
+  </si>
+  <si>
+    <t>約束</t>
+  </si>
+  <si>
+    <t>速達</t>
+  </si>
+  <si>
+    <t>発達</t>
+  </si>
+  <si>
+    <t>記念</t>
+  </si>
+  <si>
+    <t>産婦人科</t>
+  </si>
+  <si>
+    <t>主婦</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>未来</t>
+  </si>
+  <si>
+    <t>予約</t>
+  </si>
+  <si>
+    <t>お礼</t>
+  </si>
+  <si>
+    <t>老人</t>
+  </si>
+  <si>
+    <t>愛情</t>
+  </si>
+  <si>
+    <t>化学</t>
+  </si>
+  <si>
+    <t>文化</t>
+  </si>
+  <si>
+    <t>可能</t>
+  </si>
+  <si>
+    <t>検査</t>
+  </si>
+  <si>
+    <t>天才</t>
+  </si>
+  <si>
+    <t>才能</t>
+  </si>
+  <si>
+    <t>反省</t>
+  </si>
+  <si>
+    <t>責任</t>
+  </si>
+  <si>
+    <t>感想</t>
+  </si>
+  <si>
+    <t>予想</t>
+  </si>
+  <si>
+    <t>理想</t>
+  </si>
+  <si>
+    <t>満足</t>
+  </si>
+  <si>
+    <t>不満</t>
+  </si>
+  <si>
+    <t>不足</t>
+  </si>
+  <si>
+    <t>ご存じ</t>
+  </si>
+  <si>
+    <t>保存</t>
+  </si>
+  <si>
+    <t>反対</t>
+  </si>
+  <si>
+    <t>読書</t>
+  </si>
+  <si>
+    <t>能力</t>
+  </si>
+  <si>
+    <t>満員</t>
+  </si>
+  <si>
+    <t>歴史</t>
+  </si>
+  <si>
+    <t>疑問</t>
+  </si>
+  <si>
+    <t>学歴</t>
+  </si>
+  <si>
+    <t>関係</t>
+  </si>
+  <si>
+    <t>関連</t>
+  </si>
+  <si>
+    <t>税関</t>
+  </si>
+  <si>
+    <t>交通機関</t>
+  </si>
+  <si>
+    <t>勤める</t>
+  </si>
+  <si>
+    <t>出勤</t>
+  </si>
+  <si>
+    <t>通勤</t>
+  </si>
+  <si>
+    <t>休む</t>
+  </si>
+  <si>
+    <t>連休</t>
+  </si>
+  <si>
+    <t>君</t>
+  </si>
+  <si>
+    <t>係り</t>
+  </si>
+  <si>
+    <t>血</t>
+  </si>
+  <si>
+    <t>出血</t>
+  </si>
+  <si>
+    <t>幸せ</t>
+  </si>
+  <si>
+    <t>幸福</t>
+  </si>
+  <si>
+    <t>不幸</t>
+  </si>
+  <si>
+    <t>香水</t>
+  </si>
+  <si>
+    <t>香り</t>
+  </si>
+  <si>
+    <t>歯</t>
+  </si>
+  <si>
+    <t>歯科</t>
+  </si>
+  <si>
+    <t>虫歯</t>
+  </si>
+  <si>
+    <t>歯医者</t>
+  </si>
+  <si>
+    <t>面接</t>
+  </si>
+  <si>
+    <t>直接</t>
+  </si>
+  <si>
+    <t>直す</t>
+  </si>
+  <si>
+    <t>直線</t>
+  </si>
+  <si>
+    <t>他人</t>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <t>庭</t>
+  </si>
+  <si>
+    <t>家庭</t>
+  </si>
+  <si>
+    <t>夫婦</t>
+  </si>
+  <si>
+    <t>夫</t>
+  </si>
+  <si>
+    <t>忘年会</t>
+  </si>
+  <si>
+    <t>忘れ物</t>
+  </si>
+  <si>
+    <t>夢</t>
+  </si>
+  <si>
+    <t>夢中</t>
+  </si>
+  <si>
+    <t>遠い</t>
+  </si>
+  <si>
+    <t>遠足</t>
+  </si>
+  <si>
+    <t>億</t>
+  </si>
+  <si>
+    <t>観客</t>
+  </si>
+  <si>
+    <t>観光</t>
+  </si>
+  <si>
+    <t>客観的</t>
+  </si>
+  <si>
+    <t>個人</t>
+  </si>
+  <si>
+    <t>個性</t>
+  </si>
+  <si>
+    <t>交通事故</t>
+  </si>
+  <si>
+    <t>事故</t>
+  </si>
+  <si>
+    <t>証明書</t>
+  </si>
+  <si>
+    <t>航空機</t>
+  </si>
+  <si>
+    <t>送料</t>
+  </si>
+  <si>
+    <t>放送</t>
+  </si>
+  <si>
+    <t>送信</t>
+  </si>
+  <si>
+    <t>送別会</t>
+  </si>
+  <si>
+    <t>鉄</t>
+  </si>
+  <si>
+    <t>鉄道</t>
+  </si>
+  <si>
+    <t>私鉄</t>
+  </si>
+  <si>
+    <t>地下鉄</t>
+  </si>
+  <si>
+    <t>倍</t>
+  </si>
+  <si>
+    <t>秒</t>
+  </si>
+  <si>
+    <t>月末</t>
+  </si>
+  <si>
+    <t>週末</t>
+  </si>
+  <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>発明</t>
+  </si>
+  <si>
+    <t>道路</t>
+  </si>
+  <si>
+    <t>線路</t>
+  </si>
+  <si>
+    <t>高速道路</t>
+  </si>
+  <si>
+    <t>中央</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3111,12 +4419,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -3163,7 +4465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3173,9 +4475,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3399,10 +4698,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1011"/>
+  <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView tabSelected="1" topLeftCell="A233" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I241" sqref="I241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4413,7 +5712,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>207</v>
       </c>
@@ -5406,141 +6705,147 @@
       </c>
       <c r="F174" s="2"/>
     </row>
-    <row r="175" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="5"/>
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
-      <c r="F175" s="5"/>
+    <row r="175" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F175" s="2"/>
     </row>
     <row r="176" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="2" t="s">
-        <v>516</v>
+      <c r="A177" s="3" t="s">
+        <v>519</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="3" t="s">
-        <v>528</v>
+      <c r="A181" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>527</v>
+        <v>295</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
-        <v>276</v>
+        <v>531</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="2" t="s">
-        <v>533</v>
+      <c r="A184" s="3" t="s">
+        <v>536</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>297</v>
+        <v>535</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="3" t="s">
-        <v>536</v>
+      <c r="A185" s="2" t="s">
+        <v>539</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="F186" s="2"/>
     </row>
@@ -5549,214 +6854,214 @@
         <v>542</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="2" t="s">
-        <v>542</v>
+      <c r="A188" s="3" t="s">
+        <v>547</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="3" t="s">
-        <v>547</v>
+      <c r="A189" s="2" t="s">
+        <v>550</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="2" t="s">
-        <v>553</v>
+      <c r="A191" s="3" t="s">
+        <v>556</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="F191" s="2"/>
     </row>
     <row r="192" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="3" t="s">
-        <v>556</v>
+      <c r="A192" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F193" s="2"/>
     </row>
     <row r="194" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="F194" s="2"/>
     </row>
     <row r="195" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="2" t="s">
-        <v>565</v>
+      <c r="A195" s="3" t="s">
+        <v>568</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="3" t="s">
-        <v>568</v>
+      <c r="A196" s="2" t="s">
+        <v>571</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="F198" s="2"/>
     </row>
     <row r="199" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="2" t="s">
-        <v>577</v>
+      <c r="A199" s="3" t="s">
+        <v>580</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="F199" s="2"/>
     </row>
     <row r="200" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="3" t="s">
-        <v>580</v>
+      <c r="A200" s="2" t="s">
+        <v>583</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="F203" s="2"/>
     </row>
     <row r="204" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
-        <v>592</v>
+        <v>539</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="F204" s="2"/>
     </row>
@@ -5765,502 +7070,502 @@
         <v>539</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="2" t="s">
-        <v>539</v>
+      <c r="A206" s="3" t="s">
+        <v>599</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F206" s="2"/>
     </row>
     <row r="207" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="3" t="s">
-        <v>602</v>
+      <c r="A208" s="2" t="s">
+        <v>605</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="F208" s="2"/>
     </row>
     <row r="209" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F209" s="2"/>
     </row>
     <row r="210" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="F210" s="2"/>
     </row>
     <row r="211" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="2" t="s">
-        <v>614</v>
+      <c r="A212" s="3" t="s">
+        <v>617</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="F212" s="2"/>
     </row>
     <row r="213" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="3" t="s">
-        <v>617</v>
+      <c r="A213" s="2" t="s">
+        <v>592</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>615</v>
+        <v>590</v>
       </c>
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="2" t="s">
-        <v>592</v>
+      <c r="A214" s="3" t="s">
+        <v>620</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>591</v>
+        <v>619</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>590</v>
+        <v>618</v>
       </c>
       <c r="F214" s="2"/>
     </row>
     <row r="215" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="3" t="s">
-        <v>620</v>
+      <c r="A215" s="2" t="s">
+        <v>623</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="2" t="s">
-        <v>626</v>
+      <c r="A217" s="3" t="s">
+        <v>629</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="3" t="s">
-        <v>629</v>
+      <c r="A218" s="2" t="s">
+        <v>632</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="2" t="s">
-        <v>632</v>
+      <c r="A219" s="3" t="s">
+        <v>635</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="3" t="s">
-        <v>635</v>
+      <c r="A220" s="2" t="s">
+        <v>638</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
-        <v>641</v>
+        <v>51</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="F222" s="2"/>
     </row>
     <row r="223" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
-        <v>51</v>
+        <v>641</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="2" t="s">
-        <v>659</v>
+      <c r="A229" s="3" t="s">
+        <v>662</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="F230" s="2"/>
     </row>
     <row r="231" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="3" t="s">
-        <v>665</v>
+      <c r="A231" s="2" t="s">
+        <v>651</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="2" t="s">
-        <v>651</v>
+      <c r="A232" s="3" t="s">
+        <v>668</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="F232" s="2"/>
     </row>
     <row r="233" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="3" t="s">
-        <v>668</v>
+      <c r="A233" s="2" t="s">
+        <v>671</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
-        <v>671</v>
+        <v>638</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>670</v>
+        <v>637</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="F234" s="2"/>
     </row>
     <row r="235" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
-        <v>638</v>
+        <v>565</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>637</v>
+        <v>673</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>636</v>
+        <v>672</v>
       </c>
       <c r="F235" s="2"/>
     </row>
     <row r="236" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
-        <v>565</v>
+        <v>675</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>672</v>
+        <v>335</v>
       </c>
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>340</v>
+        <v>685</v>
       </c>
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A243" s="2" t="s">
-        <v>687</v>
+      <c r="A243" s="4" t="s">
+        <v>690</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="F243" s="2"/>
+        <v>689</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="F243" s="4"/>
     </row>
     <row r="244" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A244" s="4" t="s">
-        <v>690</v>
+      <c r="A244" s="3" t="s">
+        <v>692</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="F244" s="4"/>
+        <v>691</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="3" t="s">
-        <v>692</v>
+      <c r="A245" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F245" s="2"/>
     </row>
     <row r="246" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
-        <v>334</v>
+        <v>695</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F246" s="2"/>
     </row>
@@ -6272,1703 +7577,3168 @@
         <v>694</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>343</v>
+        <v>696</v>
       </c>
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="F248" s="2"/>
+      <c r="A248" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="F248" s="4"/>
     </row>
     <row r="249" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="F249" s="4"/>
+      <c r="A249" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A250" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="F250" s="2"/>
+      <c r="A250" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="F250" s="4"/>
     </row>
     <row r="251" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A251" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="B251" s="4" t="s">
-        <v>702</v>
+      <c r="A251" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>705</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="F251" s="4"/>
     </row>
     <row r="252" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="6" t="s">
-        <v>706</v>
+      <c r="A252" s="4" t="s">
+        <v>709</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="F252" s="4"/>
+        <v>708</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A253" s="4" t="s">
-        <v>709</v>
+      <c r="A253" s="3" t="s">
+        <v>712</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="F253" s="2"/>
     </row>
     <row r="254" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A254" s="3" t="s">
-        <v>712</v>
+      <c r="A254" s="2" t="s">
+        <v>715</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A255" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="F255" s="2"/>
+      <c r="A255" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="F255" s="4"/>
     </row>
     <row r="256" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A256" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="F256" s="4"/>
+      <c r="A256" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F256" s="2"/>
     </row>
     <row r="257" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A257" s="3" t="s">
+      <c r="A257" s="5" t="s">
         <v>692</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F257" s="2"/>
+      <c r="C257" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="F257" s="4"/>
     </row>
     <row r="258" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="6" t="s">
-        <v>692</v>
+      <c r="A258" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="F258" s="4"/>
+        <v>720</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F258" s="2"/>
     </row>
     <row r="259" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
-        <v>431</v>
+        <v>722</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>346</v>
+        <v>723</v>
       </c>
       <c r="F260" s="2"/>
     </row>
     <row r="261" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
-        <v>725</v>
+        <v>677</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>724</v>
+        <v>676</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>723</v>
+        <v>347</v>
       </c>
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
-        <v>677</v>
+        <v>728</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>676</v>
+        <v>727</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>347</v>
+        <v>726</v>
       </c>
       <c r="F262" s="2"/>
     </row>
     <row r="263" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A263" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="F263" s="2"/>
+      <c r="A263" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="F263" s="4"/>
     </row>
     <row r="264" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A264" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="B264" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="C264" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="F264" s="4"/>
+      <c r="A264" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="F264" s="2"/>
     </row>
     <row r="265" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A265" s="2" t="s">
-        <v>722</v>
+      <c r="A265" s="3" t="s">
+        <v>735</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>348</v>
+        <v>734</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A266" s="3" t="s">
-        <v>735</v>
+      <c r="A266" s="2" t="s">
+        <v>738</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="F266" s="2"/>
     </row>
     <row r="267" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="2" t="s">
-        <v>738</v>
+      <c r="A267" s="3" t="s">
+        <v>741</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="F267" s="2"/>
     </row>
     <row r="268" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="3" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="F269" s="2"/>
     </row>
     <row r="270" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A270" s="3" t="s">
-        <v>747</v>
+      <c r="A270" s="2" t="s">
+        <v>750</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="F271" s="2"/>
     </row>
     <row r="272" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="F272" s="2"/>
     </row>
     <row r="273" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A273" s="2" t="s">
-        <v>756</v>
+      <c r="A273" s="3" t="s">
+        <v>759</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="F274" s="2"/>
     </row>
     <row r="275" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="3" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A276" s="3" t="s">
-        <v>765</v>
+      <c r="A276" s="2" t="s">
+        <v>768</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="F276" s="2"/>
     </row>
     <row r="277" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A277" s="2" t="s">
-        <v>768</v>
+      <c r="A277" s="3" t="s">
+        <v>771</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="F278" s="2"/>
     </row>
-    <row r="279" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="3" t="s">
-        <v>774</v>
+    <row r="279" spans="1:6" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="2" t="s">
+        <v>777</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="F279" s="2"/>
     </row>
-    <row r="280" spans="1:6" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>777</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="F281" s="2"/>
     </row>
     <row r="282" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A282" s="2" t="s">
-        <v>782</v>
+      <c r="A282" s="3" t="s">
+        <v>783</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>781</v>
+        <v>755</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>780</v>
+        <v>754</v>
       </c>
       <c r="F282" s="2"/>
     </row>
-    <row r="283" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A283" s="3" t="s">
-        <v>783</v>
+    <row r="283" spans="1:6" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="2" t="s">
+        <v>786</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>755</v>
+        <v>785</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>754</v>
+        <v>784</v>
       </c>
       <c r="F283" s="2"/>
     </row>
-    <row r="284" spans="1:6" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="F284" s="2"/>
     </row>
     <row r="285" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A285" s="2" t="s">
-        <v>789</v>
+      <c r="A285" s="3" t="s">
+        <v>792</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A286" s="3" t="s">
-        <v>792</v>
+      <c r="A286" s="2" t="s">
+        <v>795</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="F286" s="2"/>
     </row>
-    <row r="287" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A287" s="2" t="s">
-        <v>795</v>
+    <row r="287" spans="1:6" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="3" t="s">
+        <v>798</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="F287" s="2"/>
     </row>
-    <row r="288" spans="1:6" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" s="3" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>797</v>
+        <v>764</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>796</v>
+        <v>763</v>
       </c>
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="3" t="s">
-        <v>799</v>
+      <c r="A289" s="2" t="s">
+        <v>802</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>764</v>
+        <v>801</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>763</v>
+        <v>800</v>
       </c>
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
-        <v>811</v>
+        <v>786</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="F293" s="2"/>
     </row>
-    <row r="294" spans="1:6" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A294" s="2" t="s">
-        <v>786</v>
+    <row r="294" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="3" t="s">
+        <v>816</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="F295" s="2"/>
     </row>
-    <row r="296" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A296" s="3" t="s">
-        <v>819</v>
+    <row r="296" spans="1:6" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="2" t="s">
+        <v>808</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="F296" s="2"/>
     </row>
-    <row r="297" spans="1:6" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
-        <v>808</v>
+        <v>823</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>806</v>
+        <v>821</v>
       </c>
       <c r="F297" s="2"/>
     </row>
     <row r="298" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="F298" s="2"/>
     </row>
     <row r="299" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A299" s="2" t="s">
-        <v>826</v>
+      <c r="A299" s="3" t="s">
+        <v>829</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A300" s="3" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>828</v>
+        <v>770</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="F300" s="2"/>
     </row>
     <row r="301" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>770</v>
+        <v>833</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A302" s="3" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="F302" s="2"/>
     </row>
     <row r="303" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A303" s="3" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="F303" s="2"/>
     </row>
     <row r="304" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A304" s="3" t="s">
-        <v>840</v>
+      <c r="A304" s="2" t="s">
+        <v>823</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>839</v>
+        <v>822</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>838</v>
+        <v>821</v>
       </c>
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
-        <v>823</v>
+        <v>843</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>822</v>
+        <v>842</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>821</v>
+        <v>841</v>
       </c>
       <c r="F305" s="2"/>
     </row>
     <row r="306" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="F307" s="2"/>
     </row>
     <row r="308" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="F308" s="2"/>
     </row>
     <row r="309" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="F310" s="2"/>
     </row>
     <row r="311" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A311" s="2" t="s">
-        <v>858</v>
+      <c r="A311" s="3" t="s">
+        <v>861</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A312" s="3" t="s">
-        <v>861</v>
+      <c r="A312" s="2" t="s">
+        <v>864</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="F312" s="2"/>
     </row>
     <row r="313" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A313" s="2" t="s">
-        <v>864</v>
+      <c r="A313" s="3" t="s">
+        <v>867</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="F313" s="2"/>
     </row>
     <row r="314" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A314" s="3" t="s">
-        <v>867</v>
+      <c r="A314" s="2" t="s">
+        <v>870</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="F314" s="2"/>
     </row>
     <row r="315" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="F315" s="2"/>
     </row>
     <row r="316" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
-        <v>873</v>
+        <v>855</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>872</v>
+        <v>854</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>871</v>
+        <v>853</v>
       </c>
       <c r="F316" s="2"/>
     </row>
     <row r="317" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A317" s="2" t="s">
-        <v>855</v>
+      <c r="A317" s="3" t="s">
+        <v>876</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>854</v>
+        <v>875</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>853</v>
+        <v>874</v>
       </c>
       <c r="F317" s="2"/>
     </row>
     <row r="318" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A318" s="3" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>875</v>
+        <v>860</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="F318" s="2"/>
     </row>
     <row r="319" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A319" s="3" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>860</v>
+        <v>879</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>859</v>
+        <v>878</v>
       </c>
       <c r="F319" s="2"/>
     </row>
     <row r="320" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A320" s="3" t="s">
-        <v>880</v>
+      <c r="A320" s="2" t="s">
+        <v>883</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="F320" s="2"/>
     </row>
     <row r="321" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A321" s="2" t="s">
-        <v>883</v>
+      <c r="A321" s="3" t="s">
+        <v>886</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="F321" s="2"/>
     </row>
     <row r="322" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A322" s="3" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="F322" s="2"/>
     </row>
     <row r="323" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A323" s="3" t="s">
-        <v>889</v>
+      <c r="A323" s="2" t="s">
+        <v>892</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="F323" s="2"/>
     </row>
     <row r="324" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="F324" s="2"/>
     </row>
     <row r="325" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A325" s="2" t="s">
-        <v>895</v>
+      <c r="A325" s="3" t="s">
+        <v>898</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="F325" s="2"/>
     </row>
     <row r="326" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A326" s="3" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="F326" s="2"/>
     </row>
     <row r="327" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A327" s="3" t="s">
-        <v>901</v>
+      <c r="A327" s="2" t="s">
+        <v>904</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="F327" s="2"/>
     </row>
     <row r="328" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="F328" s="2"/>
     </row>
     <row r="329" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A329" s="2" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="F329" s="2"/>
     </row>
     <row r="330" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="F330" s="2"/>
     </row>
     <row r="331" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A331" s="2" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="F331" s="2"/>
     </row>
     <row r="332" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
-        <v>904</v>
+        <v>846</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>903</v>
+        <v>916</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F332" s="2"/>
     </row>
     <row r="333" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
-        <v>846</v>
+        <v>919</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="F333" s="2"/>
     </row>
     <row r="334" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
-        <v>919</v>
+        <v>843</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>918</v>
+        <v>842</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>917</v>
+        <v>841</v>
       </c>
       <c r="F334" s="2"/>
     </row>
     <row r="335" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
-        <v>843</v>
+        <v>922</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>842</v>
+        <v>921</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>841</v>
+        <v>920</v>
       </c>
       <c r="F335" s="2"/>
     </row>
     <row r="336" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
-        <v>922</v>
+        <v>846</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="F336" s="2"/>
     </row>
     <row r="337" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
-        <v>846</v>
+        <v>925</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
       <c r="F337" s="2"/>
     </row>
     <row r="338" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A338" s="2" t="s">
-        <v>925</v>
+      <c r="A338" s="3" t="s">
+        <v>926</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>924</v>
+        <v>897</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="F338" s="2"/>
     </row>
     <row r="339" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A339" s="3" t="s">
-        <v>926</v>
+      <c r="A339" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>897</v>
+        <v>928</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>896</v>
+        <v>927</v>
       </c>
       <c r="F339" s="2"/>
     </row>
     <row r="340" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
-        <v>929</v>
+        <v>728</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>928</v>
+        <v>888</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>927</v>
+        <v>887</v>
       </c>
       <c r="F340" s="2"/>
     </row>
     <row r="341" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
-        <v>728</v>
+        <v>932</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>888</v>
+        <v>931</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>887</v>
+        <v>930</v>
       </c>
       <c r="F341" s="2"/>
     </row>
     <row r="342" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A342" s="2" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="F342" s="2"/>
     </row>
     <row r="343" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A343" s="2" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="F343" s="2"/>
     </row>
     <row r="344" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="F344" s="2"/>
     </row>
     <row r="345" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A345" s="2" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="F345" s="2"/>
     </row>
     <row r="346" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="F346" s="2"/>
     </row>
     <row r="347" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="F347" s="2"/>
     </row>
     <row r="348" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="F348" s="2"/>
     </row>
     <row r="349" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A349" s="2" t="s">
-        <v>953</v>
+      <c r="A349" s="3" t="s">
+        <v>956</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="F349" s="2"/>
     </row>
     <row r="350" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A350" s="3" t="s">
-        <v>956</v>
+      <c r="A350" s="2" t="s">
+        <v>959</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="F350" s="2"/>
     </row>
     <row r="351" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="F351" s="2"/>
     </row>
     <row r="352" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A352" s="2" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="F352" s="2"/>
     </row>
     <row r="353" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A353" s="2" t="s">
-        <v>965</v>
+      <c r="A353" s="3" t="s">
+        <v>968</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="F353" s="2"/>
     </row>
     <row r="354" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A354" s="3" t="s">
-        <v>968</v>
+      <c r="A354" s="2" t="s">
+        <v>971</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="F354" s="2"/>
     </row>
     <row r="355" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A355" s="2" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="F355" s="2"/>
     </row>
     <row r="356" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A356" s="2" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="F356" s="2"/>
     </row>
     <row r="357" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="F357" s="2"/>
     </row>
     <row r="358" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
-        <v>971</v>
+        <v>980</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>970</v>
+        <v>979</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>969</v>
+        <v>978</v>
       </c>
       <c r="F358" s="2"/>
     </row>
     <row r="359" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="F359" s="2"/>
     </row>
     <row r="360" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="F360" s="2"/>
     </row>
     <row r="361" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A361" s="2" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="F361" s="2"/>
     </row>
     <row r="362" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A362" s="2" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="F362" s="2"/>
     </row>
     <row r="363" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A363" s="2" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="F363" s="2"/>
     </row>
     <row r="364" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="F364" s="2"/>
     </row>
     <row r="365" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A365" s="2" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="F365" s="2"/>
     </row>
     <row r="366" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A366" s="2" t="s">
-        <v>1001</v>
+      <c r="A366" s="3" t="s">
+        <v>1004</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="F366" s="2"/>
     </row>
     <row r="367" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A367" s="3" t="s">
-        <v>1004</v>
+      <c r="A367" s="2" t="s">
+        <v>1007</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="F367" s="2"/>
     </row>
     <row r="368" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A368" s="2" t="s">
-        <v>1007</v>
+      <c r="A368" s="3" t="s">
+        <v>968</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>1006</v>
+        <v>967</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>1005</v>
+        <v>966</v>
       </c>
       <c r="F368" s="2"/>
     </row>
     <row r="369" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A369" s="3" t="s">
-        <v>968</v>
+      <c r="A369" s="2" t="s">
+        <v>944</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>967</v>
+        <v>943</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>966</v>
+        <v>942</v>
       </c>
       <c r="F369" s="2"/>
     </row>
     <row r="370" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A370" s="2" t="s">
-        <v>944</v>
+        <v>1010</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>943</v>
+        <v>1009</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>942</v>
+        <v>1008</v>
       </c>
       <c r="F370" s="2"/>
     </row>
     <row r="371" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A371" s="2" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="F371" s="2"/>
     </row>
     <row r="372" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A372" s="2" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="F372" s="2"/>
     </row>
     <row r="373" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A373" s="2" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="F373" s="2"/>
     </row>
     <row r="374" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A374" s="2" t="s">
-        <v>1019</v>
+        <v>777</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="F374" s="2"/>
     </row>
     <row r="375" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A375" s="2" t="s">
-        <v>777</v>
+        <v>1022</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>1021</v>
+        <v>1168</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F375" s="2"/>
+        <v>1311</v>
+      </c>
     </row>
     <row r="376" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A376" s="2"/>
-      <c r="B376" s="2"/>
-      <c r="C376" s="2"/>
-    </row>
-    <row r="377" spans="1:6" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="378" spans="1:6" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="379" spans="1:6" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="380" spans="1:6" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="381" spans="1:6" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="382" spans="1:6" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="383" spans="1:6" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="384" spans="1:6" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="13.2" x14ac:dyDescent="0.25"/>
+      <c r="A376" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A377" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A378" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A379" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A380" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A381" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A382" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A383" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A384" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A385" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A386" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A387" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A388" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A389" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A390" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A391" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A392" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A393" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A394" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A395" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A396" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A397" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A398" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A399" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A400" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A401" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A402" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A403" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A404" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A405" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A406" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A407" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A408" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A409" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A410" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A411" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A412" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A413" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A414" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A415" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A416" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A417" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A418" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A419" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A420" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A421" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A422" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A423" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A424" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A425" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A426" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A427" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A428" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A429" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A430" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A431" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A432" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A433" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A434" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A435" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A436" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A437" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A438" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A439" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A440" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A441" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A442" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A443" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A444" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A445" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A446" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A447" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A448" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A449" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A450" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A451" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A452" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A453" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A454" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A455" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A456" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A457" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A458" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A459" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A460" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A461" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A462" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A463" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A464" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A465" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A466" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A467" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A468" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A469" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A470" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A471" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A472" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A473" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A474" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A475" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A476" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A477" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A478" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A479" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A480" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A481" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A482" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A483" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A484" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A485" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A486" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A487" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A488" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A489" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A490" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A491" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A492" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C492" s="2" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A493" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A494" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C494" s="2" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A495" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C495" s="2" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A496" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A497" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C497" s="2" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A498" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A499" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A500" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A501" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A502" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A503" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C503" s="2" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A504" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A505" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A506" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A507" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A508" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A509" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A510" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C510" s="2" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A511" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A512" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A513" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A514" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A515" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A516" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A517" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A518" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A519" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A520" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A521" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A522" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="524" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="525" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="526" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="527" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="528" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="529" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="530" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="531" ht="13.2" x14ac:dyDescent="0.25"/>
@@ -8442,16 +11212,6 @@
     <row r="999" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="1001" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="1002" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="1003" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="1004" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="1005" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="1006" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="1007" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="1008" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="1009" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="1010" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="1011" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
